--- a/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-CodeLists-V02.00.00.xlsx
+++ b/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-CodeLists-V02.00.00.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="11355" windowHeight="6615" tabRatio="884" firstSheet="8" activeTab="15"/>
+    <workbookView xWindow="7275" yWindow="1575" windowWidth="12630" windowHeight="6420" tabRatio="884" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityType" sheetId="155" r:id="rId1"/>
-    <sheet name="ResponseDataType" sheetId="185" r:id="rId2"/>
-    <sheet name="AmountType" sheetId="178" r:id="rId3"/>
-    <sheet name="ConfidentialityLevel" sheetId="199" r:id="rId4"/>
-    <sheet name="ContractType" sheetId="144" r:id="rId5"/>
-    <sheet name="CountryCodeIdentifier" sheetId="190" r:id="rId6"/>
-    <sheet name="CriterionElementType" sheetId="202" r:id="rId7"/>
+    <sheet name="AmountType" sheetId="178" r:id="rId2"/>
+    <sheet name="ConfidentialityLevel" sheetId="199" r:id="rId3"/>
+    <sheet name="ContractType" sheetId="144" r:id="rId4"/>
+    <sheet name="CountryCodeIdentifier" sheetId="190" r:id="rId5"/>
+    <sheet name="CriterionElementType" sheetId="202" r:id="rId6"/>
+    <sheet name="ResponseDataType" sheetId="185" r:id="rId7"/>
     <sheet name="CriteriaType" sheetId="193" r:id="rId8"/>
     <sheet name="CurrencyCode" sheetId="191" r:id="rId9"/>
     <sheet name="DocRefContentType" sheetId="192" r:id="rId10"/>
@@ -36,7 +36,8 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="7">CriteriaType!$A$1:$C$75</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:A23"/>
 </workbook>
 </file>
 
@@ -6844,14 +6845,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22805" name="Table783713621145522170522806" displayName="Table783713621145522170522806" ref="A12:B35" totalsRowShown="0">
-  <autoFilter ref="A12:B35"/>
-  <sortState ref="A13:B23">
-    <sortCondition ref="A13"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16245" name="Table783716246" displayName="Table783716246" ref="A12:B18" totalsRowShown="0">
+  <autoFilter ref="A12:B18"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Code" dataDxfId="32"/>
-    <tableColumn id="2" name="Value" dataDxfId="31"/>
+    <tableColumn id="1" name="Code" dataDxfId="30"/>
+    <tableColumn id="2" name="Value" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6919,17 +6917,6 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16245" name="Table783716246" displayName="Table783716246" ref="A12:B18" totalsRowShown="0">
-  <autoFilter ref="A12:B18"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Code" dataDxfId="30"/>
-    <tableColumn id="2" name="Value" dataDxfId="29"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24302" name="Table759524303" displayName="Table759524303" ref="A12:B14" tableType="xml" totalsRowShown="0" connectionId="63">
   <autoFilter ref="A12:B14"/>
   <tableColumns count="2">
@@ -6944,7 +6931,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7595" name="Table7595" displayName="Table7595" ref="A12:B20" tableType="xml" totalsRowShown="0" connectionId="63">
   <autoFilter ref="A12:B20"/>
   <tableColumns count="2">
@@ -6959,7 +6946,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25037" name="Table759525038" displayName="Table759525038" ref="A12:B23" tableType="xml" totalsRowShown="0" connectionId="63">
   <autoFilter ref="A12:B23"/>
   <tableColumns count="2">
@@ -6969,6 +6956,20 @@
     <tableColumn id="2" uniqueName="Value" name="Value" dataDxfId="26">
       <xmlColumnPr mapId="603" xpath="/CodeList/ValuesSet/ValueSet/Value" xmlDataType="string"/>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22805" name="Table783713621145522170522806" displayName="Table783713621145522170522806" ref="A12:B35" totalsRowShown="0">
+  <autoFilter ref="A12:B35"/>
+  <sortState ref="A13:B23">
+    <sortCondition ref="A13"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Code" dataDxfId="32"/>
+    <tableColumn id="2" name="Value" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8464,7 +8465,7 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScaleNormal="115" workbookViewId="0">
       <selection sqref="A1:IV65536"/>
     </sheetView>
   </sheetViews>
@@ -9466,7 +9467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10105,42 +10106,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B35"/>
+  <sheetPr codeName="Sheet21">
+    <tabColor theme="0" tint="-0.34998626667073579"/>
+  </sheetPr>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="175.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>278</v>
-      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -10148,7 +10149,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -10156,7 +10157,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -10164,13 +10165,13 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -10178,7 +10179,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -10186,7 +10187,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -10194,202 +10195,141 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>279</v>
+        <v>260</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>281</v>
+        <v>261</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>283</v>
+        <v>267</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>284</v>
+        <v>264</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>285</v>
+        <v>248</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>286</v>
+        <v>250</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>288</v>
-      </c>
+      <c r="A19" s="8"/>
+      <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>290</v>
-      </c>
+      <c r="A20" s="8"/>
+      <c r="B20" s="4"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>291</v>
-      </c>
+      <c r="A21" s="8"/>
+      <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>293</v>
-      </c>
+      <c r="A22" s="8"/>
+      <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>295</v>
-      </c>
+      <c r="A23" s="8"/>
+      <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>297</v>
-      </c>
+      <c r="A24" s="8"/>
+      <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="s">
-        <v>1271</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>1272</v>
-      </c>
+      <c r="A25" s="8"/>
+      <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>1317</v>
-      </c>
+      <c r="A26" s="8"/>
+      <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
-        <v>1405</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>1406</v>
-      </c>
+      <c r="A27" s="8"/>
+      <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
-        <v>1429</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>1441</v>
-      </c>
+      <c r="A28" s="8"/>
+      <c r="B28" s="4"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
-        <v>1430</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>1442</v>
-      </c>
+      <c r="A29" s="8"/>
+      <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
-        <v>1431</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>1440</v>
-      </c>
+      <c r="A30" s="8"/>
+      <c r="B30" s="4"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
-        <v>1432</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>1439</v>
-      </c>
+      <c r="A31" s="8"/>
+      <c r="B31" s="4"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="23" t="s">
-        <v>1433</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>1438</v>
-      </c>
+      <c r="A32" s="8"/>
+      <c r="B32" s="4"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="s">
-        <v>1434</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>1436</v>
-      </c>
+      <c r="A33" s="8"/>
+      <c r="B33" s="4"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="23" t="s">
-        <v>1435</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>1437</v>
-      </c>
+      <c r="A34" s="8"/>
+      <c r="B34" s="4"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="23" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>1444</v>
-      </c>
+      <c r="A35" s="8"/>
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="8"/>
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="8"/>
+      <c r="B37" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
@@ -11576,236 +11516,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet21">
-    <tabColor theme="0" tint="-0.34998626667073579"/>
-  </sheetPr>
-  <dimension ref="A1:B37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="4"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="4"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="4"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="4"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="4"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="4"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11928,7 +11638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:B20"/>
@@ -12095,7 +11805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B262"/>
   <sheetViews>
@@ -14204,7 +13914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
@@ -14400,6 +14110,297 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="175.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="23" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="23" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="23" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="23" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="23" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="23" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -14407,7 +14408,7 @@
   </sheetPr>
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-CodeLists-V02.00.00.xlsx
+++ b/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-CodeLists-V02.00.00.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="1575" windowWidth="12630" windowHeight="6420" tabRatio="884" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="7275" yWindow="1575" windowWidth="12630" windowHeight="6420" tabRatio="884" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityType" sheetId="155" r:id="rId1"/>
@@ -37,7 +37,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="7">CriteriaType!$A$1:$C$75</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:A23"/>
 </workbook>
 </file>
 
@@ -5715,6 +5714,25 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -5783,25 +5801,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -6848,8 +6847,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16245" name="Table783716246" displayName="Table783716246" ref="A12:B18" totalsRowShown="0">
   <autoFilter ref="A12:B18"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Code" dataDxfId="30"/>
-    <tableColumn id="2" name="Value" dataDxfId="29"/>
+    <tableColumn id="1" name="Code" dataDxfId="32"/>
+    <tableColumn id="2" name="Value" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6923,7 +6922,7 @@
     <tableColumn id="1" uniqueName="Code" name="Code">
       <xmlColumnPr mapId="603" xpath="/CodeList/ValuesSet/ValueSet/Code" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Value" name="Value" dataDxfId="28">
+    <tableColumn id="2" uniqueName="Value" name="Value" dataDxfId="30">
       <xmlColumnPr mapId="603" xpath="/CodeList/ValuesSet/ValueSet/Value" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -6938,7 +6937,7 @@
     <tableColumn id="1" uniqueName="Code" name="Code">
       <xmlColumnPr mapId="603" xpath="/CodeList/ValuesSet/ValueSet/Code" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Value" name="Value" dataDxfId="27">
+    <tableColumn id="2" uniqueName="Value" name="Value" dataDxfId="29">
       <xmlColumnPr mapId="603" xpath="/CodeList/ValuesSet/ValueSet/Value" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -6953,7 +6952,7 @@
     <tableColumn id="1" uniqueName="Code" name="Code">
       <xmlColumnPr mapId="603" xpath="/CodeList/ValuesSet/ValueSet/Code" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Value" name="Value" dataDxfId="26">
+    <tableColumn id="2" uniqueName="Value" name="Value" dataDxfId="28">
       <xmlColumnPr mapId="603" xpath="/CodeList/ValuesSet/ValueSet/Value" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -6968,8 +6967,8 @@
     <sortCondition ref="A13"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" name="Code" dataDxfId="32"/>
-    <tableColumn id="2" name="Value" dataDxfId="31"/>
+    <tableColumn id="1" name="Code" dataDxfId="27"/>
+    <tableColumn id="2" name="Value" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14114,7 +14113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0"/>
+    <sheetView topLeftCell="A14" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14408,8 +14407,8 @@
   </sheetPr>
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-CodeLists-V02.00.00.xlsx
+++ b/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-CodeLists-V02.00.00.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="1575" windowWidth="12630" windowHeight="6420" tabRatio="884" activeTab="7"/>
+    <workbookView xWindow="7275" yWindow="1575" windowWidth="12630" windowHeight="6420" tabRatio="884" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityType" sheetId="155" r:id="rId1"/>
@@ -1096,9 +1096,6 @@
     <t>AMOUNT</t>
   </si>
   <si>
-    <t>EVIDENCE_URL</t>
-  </si>
-  <si>
     <t>DATE</t>
   </si>
   <si>
@@ -1141,9 +1138,6 @@
     <t>Textual field</t>
   </si>
   <si>
-    <t>URL, namely pointing to an evidence</t>
-  </si>
-  <si>
     <t>INDICATOR</t>
   </si>
   <si>
@@ -4234,817 +4228,823 @@
     <t>IDENTIFIER</t>
   </si>
   <si>
+    <t>FinancialRatioType</t>
+  </si>
+  <si>
+    <t>FINANCIAL RATIO TYPE</t>
+  </si>
+  <si>
+    <t>BACH</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Competitive procedure with negotiation </t>
+  </si>
+  <si>
+    <t>Innovation partnership</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>Assets to Equity ratio</t>
+  </si>
+  <si>
+    <t>Total balance sheet/Total equity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liabilities to Equity ratio </t>
+  </si>
+  <si>
+    <t>Total liabilities/Total equity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current assets/Total assets </t>
+  </si>
+  <si>
+    <t>Current assets/Total balance sheet</t>
+  </si>
+  <si>
+    <t>Other financial assets and cash and bank/ Total assets</t>
+  </si>
+  <si>
+    <t>Other financial assets and cash and bank/Total balance sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-current debt/ Total assets </t>
+  </si>
+  <si>
+    <t>Non-current debt/Total balance sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current debt/Total assets </t>
+  </si>
+  <si>
+    <t>Current debt/Total balance sheet</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>R22</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>R24</t>
+  </si>
+  <si>
+    <t>R25</t>
+  </si>
+  <si>
+    <t>R26</t>
+  </si>
+  <si>
+    <t>R27</t>
+  </si>
+  <si>
+    <t>Financial income net of charges other than interest/EBITDA</t>
+  </si>
+  <si>
+    <t>EBITDA/Interest on financial debt</t>
+  </si>
+  <si>
+    <t>EBITDA/Interest on financial debts</t>
+  </si>
+  <si>
+    <t>Interest burden</t>
+  </si>
+  <si>
+    <t>EBT/EBIT</t>
+  </si>
+  <si>
+    <t>Interest and similar charges/Net turnove</t>
+  </si>
+  <si>
+    <t>Interest and similar charges/Net turnover</t>
+  </si>
+  <si>
+    <t>Interest and similar charges/Gross operating profit</t>
+  </si>
+  <si>
+    <t>Interest and similar charges/ Gross operating profit</t>
+  </si>
+  <si>
+    <t>Net financial income/Gross operating profit</t>
+  </si>
+  <si>
+    <t>Financial income net of charges/ Gross operating profit</t>
+  </si>
+  <si>
+    <t>Gross operating profit/Total net debt</t>
+  </si>
+  <si>
+    <t>R31</t>
+  </si>
+  <si>
+    <t>R32</t>
+  </si>
+  <si>
+    <t>R33</t>
+  </si>
+  <si>
+    <t>R34</t>
+  </si>
+  <si>
+    <t>R35</t>
+  </si>
+  <si>
+    <t>R36</t>
+  </si>
+  <si>
+    <t>R37</t>
+  </si>
+  <si>
+    <t>R38</t>
+  </si>
+  <si>
+    <t>R39</t>
+  </si>
+  <si>
+    <t>R310</t>
+  </si>
+  <si>
+    <t>Gross value added/Net turnove</t>
+  </si>
+  <si>
+    <t>Gross operating profit/Net turnover (ROS)</t>
+  </si>
+  <si>
+    <t>Gross operating profit/Net turnover</t>
+  </si>
+  <si>
+    <t>EBITDA/Net turnove</t>
+  </si>
+  <si>
+    <t>EBITDA/Net turnover</t>
+  </si>
+  <si>
+    <t>Net operating profit/Net turnover</t>
+  </si>
+  <si>
+    <t>EBIT/Net turnover</t>
+  </si>
+  <si>
+    <t>EBT/Net turnover</t>
+  </si>
+  <si>
+    <t>Net financial income/Net turnover</t>
+  </si>
+  <si>
+    <t>Return on equity</t>
+  </si>
+  <si>
+    <t>Net profit or loss for the period/Total equity</t>
+  </si>
+  <si>
+    <t>Net operating profit/Total assets</t>
+  </si>
+  <si>
+    <t>Net operating profit/Total balance sheet</t>
+  </si>
+  <si>
+    <t>Profit or loss for the year before taxes/Equity</t>
+  </si>
+  <si>
+    <t>Profit or loss for the year before taxes/Total equity</t>
+  </si>
+  <si>
+    <t>R41</t>
+  </si>
+  <si>
+    <t>R42</t>
+  </si>
+  <si>
+    <t>Asset turnover ratio</t>
+  </si>
+  <si>
+    <t>Net turnover/Total balance sheet</t>
+  </si>
+  <si>
+    <t>Employee expenses/Gross value added</t>
+  </si>
+  <si>
+    <t>Staff costs/Gross value added</t>
+  </si>
+  <si>
+    <t>R51</t>
+  </si>
+  <si>
+    <t>R52</t>
+  </si>
+  <si>
+    <t>R53</t>
+  </si>
+  <si>
+    <t>R54</t>
+  </si>
+  <si>
+    <t>Inventories/Net turnover</t>
+  </si>
+  <si>
+    <t>Trade receivables/Net turnover</t>
+  </si>
+  <si>
+    <t>Trade payables/Net turnover</t>
+  </si>
+  <si>
+    <t>Operating working capital/Net turnover</t>
+  </si>
+  <si>
+    <t>CRITERION</t>
+  </si>
+  <si>
+    <t>CriterionElementType</t>
+  </si>
+  <si>
+    <t>CRITERION ELEMENT TYPE</t>
+  </si>
+  <si>
+    <t>Criterion</t>
+  </si>
+  <si>
+    <t>Question or requirement that requires an answer</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>A url, including e-mail addresses</t>
+  </si>
+  <si>
+    <t>NOJCN</t>
+  </si>
+  <si>
+    <t>ROJCN</t>
+  </si>
+  <si>
+    <t>LOJCN</t>
+  </si>
+  <si>
+    <t>NOJPIN</t>
+  </si>
+  <si>
+    <t>ROJPIN</t>
+  </si>
+  <si>
+    <t>LOJPIN</t>
+  </si>
+  <si>
+    <t>Prior Information Notice (PIN) published on a National Government Official Journal</t>
+  </si>
+  <si>
+    <t>Contract Notice (CN) published on a National Government Official Journal</t>
+  </si>
+  <si>
+    <t>Contract Notice (CN) published on a Local Government Official Journal</t>
+  </si>
+  <si>
+    <t>Contract Notice (CN) published on a Regional Government Official Journal</t>
+  </si>
+  <si>
+    <t>Prior Information Notice (PIN) published on a Regional Government Official Journal</t>
+  </si>
+  <si>
+    <t>Prior Information Notice (PIN) published on a Local Government Official Journal</t>
+  </si>
+  <si>
+    <t>NOJCAN</t>
+  </si>
+  <si>
+    <t>ROJCAN</t>
+  </si>
+  <si>
+    <t>LOJCAN</t>
+  </si>
+  <si>
+    <t>Contract Award Notice (CAN) published on a National Government Official Journal</t>
+  </si>
+  <si>
+    <t>Contract Award Notice (CAN) published on a Regional Government Official Journal</t>
+  </si>
+  <si>
+    <t>Contract Award Notice (CAN) published on a Local Government Official Journal</t>
+  </si>
+  <si>
+    <t>REQUIREMENT_GROUP</t>
+  </si>
+  <si>
+    <t>REQUIREMENT</t>
+  </si>
+  <si>
+    <t>QUESTION_GROUP</t>
+  </si>
+  <si>
+    <t>QUESTION</t>
+  </si>
+  <si>
+    <t>MAXIMUM_AMOUNT</t>
+  </si>
+  <si>
+    <t>MINIMUM_AMOUNT</t>
+  </si>
+  <si>
+    <t>MAXIMUM_VALUE_NUMERIC</t>
+  </si>
+  <si>
+    <t>MINIMUM_VALUE_NUMERIC</t>
+  </si>
+  <si>
+    <t>TRANSLATION_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>CERTIFICATION_LEVEL_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>COPY_QUALITY_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>The description of the level of the expected certification that a contracting authority requires to an economic operator in a tendering process</t>
+  </si>
+  <si>
+    <t>The type of Copy quality required by a contracting authority, expressed as a code</t>
+  </si>
+  <si>
+    <t>The type of transation that a contracting authority's requirement shall be translated for example certified translation</t>
+  </si>
+  <si>
+    <t>The minimum value the answer to a criterion question must have</t>
+  </si>
+  <si>
+    <t>The maximum value the answer to a criterion question must have</t>
+  </si>
+  <si>
+    <t>The maximum amount the answer must have</t>
+  </si>
+  <si>
+    <t>The minimum amount the answer must have</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>Time values (format HH:MM:SS)</t>
+  </si>
+  <si>
+    <t>REQUIREMENT_SUBGROUP</t>
+  </si>
+  <si>
+    <t>SUBCRITERION</t>
+  </si>
+  <si>
+    <t>Use to define national subcriteria or to group complex repetitive structures (e.g. more than one ratio or more than one references to works, supplies or services)</t>
+  </si>
+  <si>
+    <t>Group of requirements or remarks (captions)</t>
+  </si>
+  <si>
+    <t>Requirement, remark, additional information (captions)</t>
+  </si>
+  <si>
+    <t>Group of questions, each question requiring an answer</t>
+  </si>
+  <si>
+    <t>QUESTION_SUBGROUP</t>
+  </si>
+  <si>
+    <t>A subgroup of questions inside a group or a subgroup of question</t>
+  </si>
+  <si>
+    <t>A subgroup of requirements or remarks (captions) inside a group or subgroup of requirements</t>
+  </si>
+  <si>
+    <t>CAPTION</t>
+  </si>
+  <si>
+    <t>A text label</t>
+  </si>
+  <si>
+    <t>Additional line in a description (for descriptions that can be split in several lines)</t>
+  </si>
+  <si>
+    <t>ADDITIONAL_DESCRIPTION_LINE</t>
+  </si>
+  <si>
+    <t>02.00.00</t>
+  </si>
+  <si>
+    <t>LEGISLATION</t>
+  </si>
+  <si>
+    <t>An instance of a Legislation class</t>
+  </si>
+  <si>
+    <t>UUID</t>
+  </si>
+  <si>
+    <t>005eb9ed-1347-4ca3-bb29-9bc0db64e1ab</t>
+  </si>
+  <si>
+    <t>Has the economic operator itself or any person who is a member of its administrative, management or supervisory body or has powers of representation, decision or control therein been the subject of a conviction by final judgment for participation in a criminal organisation, by a conviction rendered at the most five years ago or in which an exclusion period set out directly in the conviction continues to be applicable? As defined in Article 2 of Council Framework Decision 2008/841/JHA of 24 October 2008 on the fight against organised crime (OJ L 300, 11.11.2008, p. 42).","EXCLUSION.CRIMINAL_CONVICTIONS","57(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>c27b7c4e-c837-4529-b867-ed55ce639db5</t>
+  </si>
+  <si>
+    <t>Has the economic operator itself or any person who is a member of its administrative, management or supervisory body or has powers of representation, decision or control therein been the subject of a conviction by final judgment for corruption, by a conviction rendered at the most five years ago or in which an exclusion period set out directly in the conviction continues to be applicable? As defined in Article 3 of the Convention on the fight against corruption involving officials of the European Communities or officials of Member States of the European Union, OJ C 195, 25.6.1997, p. 1, and in Article 2(1) of Council Framework Decision 2003/568/JHA of 22 July 2003 on combating corruption in the private sector (OJ L 192, 31.7.2003, p. 54). This exclusion ground also includes corruption as defined in the national law of the contracting authority (contracting entity) or the economic operator.</t>
+  </si>
+  <si>
+    <t>297d2323-3ede-424e-94bc-a91561e6f320</t>
+  </si>
+  <si>
+    <t>d486fb70-86b3-4e75-97f2-0d71b5697c7d</t>
+  </si>
+  <si>
+    <t>Has the economic operator itself or any person who is a member of its administrative, management or supervisory body or has powers of representation, decision or control therein been the subject of a conviction by final judgment for terrorist offences or offences linked to terrorist activities, by a conviction rendered at the most five years ago or in which an exclusion period set out directly in the conviction continues to be applicable? As defined in Articles 1 and 3 of Council Framework Decision of 13 June 2002 on combating terrorism (OJ L 164, 22.6.2002, p. 3). This exclusion ground also includes inciting or aiding or abetting or attempting to commit an offence, as referred to in Article 4 of that Framework Decision.</t>
+  </si>
+  <si>
+    <t>b61bbeb7-690e-4a40-bc68-d6d4ecfaa3d4</t>
+  </si>
+  <si>
+    <t>Has the economic operator breached its obligations relating to the payment of taxes, both in the country in which it is established and in Member State of the contracting authority or contracting entity if other than the country of establishment?</t>
+  </si>
+  <si>
+    <t>7d85e333-bbab-49c0-be8d-c36d71a72f5e</t>
+  </si>
+  <si>
+    <t>Has the economic operator breached its obligations relating to the payment social security contributions, both in the country in which it is established and in Member State of the contracting authority or contracting entity if other than the country of establishment?</t>
+  </si>
+  <si>
+    <t>a80ddb62-d25b-4e4e-ae22-3968460dc0a9</t>
+  </si>
+  <si>
+    <t>Has the economic operator, to its knowledge, breached its obligations in the fields of environmental law? As referred to for the purposes of this procurement in national law, in the relevant notice or the procurement documents or in Article 18(2) of Directive 2014/24/EU.</t>
+  </si>
+  <si>
+    <t>a261a395-ed17-4939-9c75-b9ff1109ca6e</t>
+  </si>
+  <si>
+    <t>Has the economic operator, to its knowledge, breached its obligations in the fields of social law? As referred to for the purposes of this procurement in national law, in the relevant notice or the procurement documents or in Article 18(2) of Directive 2014/24/EU.</t>
+  </si>
+  <si>
+    <t>a34b70d6-c43d-4726-9a88-8e2b438424bf</t>
+  </si>
+  <si>
+    <t>Has the economic operator, to its knowledge, breached its obligations in the fields of labour law? As referred to for the purposes of this procurement in national law, in the relevant notice or the procurement documents or in Article 18(2) of Directive 2014/24/EU.</t>
+  </si>
+  <si>
+    <t>d3732c09-7d62-4edc-a172-241da6636e7c</t>
+  </si>
+  <si>
+    <t>Is the economic operator bankrupt? This information needs not be given if exclusion of economic operators in this case has been made mandatory under the applicable national law without any possibility of derogation where the economic operator is nevertheless able to perform the contract.</t>
+  </si>
+  <si>
+    <t>396f288a-e267-4c20-851a-ed4f7498f137</t>
+  </si>
+  <si>
+    <t>Is the economic operator the subject of insolvency or winding-up? This information needs not be given if exclusion of economic operators in this case has been made mandatory under the applicable national law without any possibility of derogation where the economic operator is nevertheless able to perform the contract.</t>
+  </si>
+  <si>
+    <t>68918c7a-f5bc-4a1a-a62f-ad8983600d48</t>
+  </si>
+  <si>
+    <t>Is the economic operator in arrangement with creditors? This information needs not be given if exclusion of economic operators in this case has been made mandatory under the applicable national law without any possibility of derogation where the economic operator is nevertheless able to perform the contract.</t>
+  </si>
+  <si>
+    <t>daffa2a9-9f8f-4568-8be8-7b8bf306d096</t>
+  </si>
+  <si>
+    <t>Is the economic operator in any analogous situation like bankruptcy arising from a similar procedure under national laws and regulations? This information needs not be given if exclusion of economic operators in this case has been made mandatory under the applicable national law without any possibility of derogation where the economic operator is nevertheless able to perform the contract.</t>
+  </si>
+  <si>
+    <t>8fda202a-0c37-41bb-9d7d-de3f49edbfcb</t>
+  </si>
+  <si>
+    <t>Are the assets of the economic operator being administered by a liquidator or by the court?  This information needs not be given if exclusion of economic operators in this case has been made mandatory under the applicable national law without any possibility of derogation where the economic operator is nevertheless able to perform the contract.</t>
+  </si>
+  <si>
+    <t>166536e2-77f7-455c-b018-70582474e4f6</t>
+  </si>
+  <si>
+    <t>514d3fde-1e3e-4dcd-b02a-9f984d5bbda3</t>
+  </si>
+  <si>
+    <t>56d13e3d-76e8-4f23-8af6-13e60a2ee356</t>
+  </si>
+  <si>
+    <t>Has the economic operator entered into agreements with other economic operators aimed at distorting competition?</t>
+  </si>
+  <si>
+    <t>b1b5ac18-f393-4280-9659-1367943c1a2e</t>
+  </si>
+  <si>
+    <t>Is the economic operator aware of any conflict of interest, as indicated in national law, the relevant notice or the procurement documents due to its participation in the procurement procedure?</t>
+  </si>
+  <si>
+    <t>61874050-5130-4f1c-a174-720939c7b483</t>
+  </si>
+  <si>
+    <t>Has the economic operator or an undertaking related to it advised the contracting authority or contracting entity or otherwise been involved in the preparation of the procurement procedure?</t>
+  </si>
+  <si>
+    <t>3293e92b-7f3e-42f1-bee6-a7641bb04251</t>
+  </si>
+  <si>
+    <t>Has the economic operator experienced that a prior public contract, a prior contract with a contracting entity or a prior concession contract was terminated early, or that damages or other comparable sanctions were imposed in connection with that prior contract?</t>
+  </si>
+  <si>
+    <t>696a75b2-6107-428f-8b74-82affb67e184</t>
+  </si>
+  <si>
+    <t>Can the economic operator confirm the four exclusion grounds, that it has not been guilty of serious misrepresentation in supplying the information required for the verification of the absence of grounds for exclusion or the fulfilment of the selection criteria, that it has not withheld such information, it has been able, without delay, to submit the supporting documents required by a contracting authority or contracting entity, and it has not undertaken to unduly influence the decision making process of the contracting authority or contracting entity, to obtain confidential information that may confer upon it undue advantages in the procurement procedure or to negligently provide misleading information that may have a material influence on decisions concerning exclusion, selection or award?</t>
+  </si>
+  <si>
+    <t>63adb07d-db1b-4ef0-a14e-a99785cf8cf6</t>
+  </si>
+  <si>
+    <t>Other exclusion grounds that may be foreseen in the national legislation of the contracting authority’s or contracting entity’s Member State. Do the purely national grounds of exclusion, which are specified in the relevant notice or in the procurement documents, apply?</t>
+  </si>
+  <si>
+    <t>6ee55a59-6adb-4c3a-b89f-e62a7ad7be7f</t>
+  </si>
+  <si>
+    <t>It is enrolled in relevant professional registers kept in the Member State of its establishment as described in Annex XI of Directive 2014/24/EU; economic operators from certain Member States may have to comply with other requirements set out in that Annex.</t>
+  </si>
+  <si>
+    <t>87b3fa26-3549-4f92-b8e0-3fd8f04bf5c7</t>
+  </si>
+  <si>
+    <t>It is enrolled in trade registers kept in the Member State of its establishment as described in Annex XI of Directive 2014/24/EU; economic operators from certain Member States may have to comply with other requirements set out in that Annex.</t>
+  </si>
+  <si>
+    <t>9eeb6d5c-0eb8-48e8-a4c5-5087a7c095a4</t>
+  </si>
+  <si>
+    <t>Is a particular membership of a particular organisation needed in order to be able to perform the service in question in the country of establishment of the economic operator?</t>
+  </si>
+  <si>
+    <t>73f10e36-ed7a-412e-995c-aa76463e3776</t>
+  </si>
+  <si>
+    <t>499efc97-2ac1-4af2-9e84-323c2ca67747</t>
+  </si>
+  <si>
+    <t>Its general yearly turnover for the number of financial years required in the relevant notice, the procurement documents or the ESPD is as follows:</t>
+  </si>
+  <si>
+    <t>b16cb9fc-6cb7-4585-9302-9533b415cf48</t>
+  </si>
+  <si>
+    <t>Its average yearly turnover for the number of years required in the relevant notice, the procurement documents or the ESPD is as follows:</t>
+  </si>
+  <si>
+    <t>074f6031-55f9-4e99-b9a4-c4363e8bc315</t>
+  </si>
+  <si>
+    <t>Its specific yearly turnover in the business area covered by the contract for the number of financial years required in the relevant notice, the procurement documents or the ESPD is as follows:</t>
+  </si>
+  <si>
+    <t>d3dfb714-f558-4512-bbc5-e456fa2339de</t>
+  </si>
+  <si>
+    <t>Its specific average yearly turnover in the business area covered by the contract for the number of years required in the relevant notice, the procurement documents or the ESPD is as follows:</t>
+  </si>
+  <si>
+    <t>77f481ce-ffb6-483f-8e2b-c78db5e68292</t>
+  </si>
+  <si>
+    <t>In case the information concerning turnover (general or specific) is not available for the entire period required, please state the date on which the economic operator was set up or started trading:</t>
+  </si>
+  <si>
+    <t>e4d37adc-08cd-4f4d-a8d8-32b62b0a1f46</t>
+  </si>
+  <si>
+    <t>7604bd40-4462-4086-8763-a50da51a869c</t>
+  </si>
+  <si>
+    <t>The insured amount in its professional risk indemnity insurance is the following:</t>
+  </si>
+  <si>
+    <t>ab0e7f2e-6418-40e2-8870-6713123e41ad</t>
+  </si>
+  <si>
+    <t>Concerning the other economic or financial requirements, if any, that may have been specified in the relevant notice or the procurement documents, the economic operator declares that:</t>
+  </si>
+  <si>
+    <t>cdd3bb3e-34a5-43d5-b668-2aab86a73822</t>
+  </si>
+  <si>
+    <t>For public works contracts only: During the reference period, the economic operator has performed the following works of the specified type. Contracting authorities may require up to five years and allow experience dating from more than five years.</t>
+  </si>
+  <si>
+    <t>3a18a175-1863-4b1d-baef-588ce61960ca</t>
+  </si>
+  <si>
+    <t>For public supply contracts only: During the reference period, the economic operator has delivered the following principal deliveries of the type specified. Contracting authorities may require up to three years and allow experience dating from more than three years.</t>
+  </si>
+  <si>
+    <t>5e506c16-26ab-4e32-bb78-b27f87dc0565</t>
+  </si>
+  <si>
+    <t>For public service contracts only: During the reference period, the economic operator has provided the following main services of the type specified. Contracting authorities may require up to three years and allow experience dating from more than three years.</t>
+  </si>
+  <si>
+    <t>3aaca389-4a7b-406b-a4b9-080845d127e7</t>
+  </si>
+  <si>
+    <t>It can call upon the following technicians or technical bodies, especially those responsible for quality control. For technicians or technical bodies not belonging directly to the economic operator's undertaking but on whose capacities the economic operator relies as set out under Part II, Section C, separate ESPD forms must be filled in.</t>
+  </si>
+  <si>
+    <t>c599c130-b29f-461e-a187-4e16c7d40db7</t>
+  </si>
+  <si>
+    <t>In the case of public works contracts, the economic operator will be able to call on the following technicians or technical bodies to carry out the work:</t>
+  </si>
+  <si>
+    <t>4bf996d9-439c-40c6-9ab9-980a48cb55a1</t>
+  </si>
+  <si>
+    <t>It uses the following technical facilities and measures for ensuring quality and its study and research facilities are as follows:</t>
+  </si>
+  <si>
+    <t>CRITERION.SELECTION.TECHNICAL_PROFESSIONAL_ABILITY.TECHNICAL.FACILITIES.FOR_STUDY_RESEARCH</t>
+  </si>
+  <si>
+    <t>90a2e100-44cc-45d3-9970-69d6714f1596</t>
+  </si>
+  <si>
+    <t>It uses the following study and research facilities are as follows:</t>
+  </si>
+  <si>
+    <t>dc12a151-7fdf-4733-a8f0-30f667292e66</t>
+  </si>
+  <si>
+    <t>It will be able to apply the following supply chain management and tracking systems when performing the contract:</t>
+  </si>
+  <si>
+    <t>c8809aa1-29b6-4f27-ae2f-27e612e394db</t>
+  </si>
+  <si>
+    <t>For complex products or services to be supplied or, exceptionally, for products or services which are required for a special purpose: The economic operator will allow checks  to be conducted on the production capacities or the technical capacity of the economic operator and, where necessary, on the means of study and research which are available to it and on the quality control measures? The check is to be performed by the contracting authority or, in case the latter consents to this, on its behalf by a competent official body of the country in which the supplier or service provider is established.</t>
+  </si>
+  <si>
+    <t>CRITERION.SELECTION.TECHNICAL_PROFESSIONAL_ABILITY.PROFESSIONAL.QUALIFICATIONS</t>
+  </si>
+  <si>
+    <t>07301031-2270-41af-8e7e-66fe0c777107</t>
+  </si>
+  <si>
+    <t>The following educational and professional qualifications are held by the service provider or the contractor itself, and/or (depending on the requirements set out in the relevant notice or the procurement documents by its managerial staff.</t>
+  </si>
+  <si>
+    <t>9460457e-b43d-48a9-acd1-615de6ddd33e</t>
+  </si>
+  <si>
+    <t>The economic operator will be able to apply the following environmental management measures when performing the contract:</t>
+  </si>
+  <si>
+    <t>6346959b-e097-4ea1-89cd-d1b4c131ea4d</t>
+  </si>
+  <si>
+    <t>The economic operator’s number of managerial staff for the last three years were as follows:</t>
+  </si>
+  <si>
+    <t>1f49b3f0-d50f-43f6-8b30-4bafab108b9b</t>
+  </si>
+  <si>
+    <t>The economic operator’s average annual manpower for the last three years were as follows:</t>
+  </si>
+  <si>
+    <t>cc18c023-211d-484d-a32e-52f3f970285f</t>
+  </si>
+  <si>
+    <t>The following tools, plant or technical equipment will be available to it for performing the contract:</t>
+  </si>
+  <si>
+    <t>612a1625-118d-4ea4-a6db-413184e7c0a8</t>
+  </si>
+  <si>
+    <t>The economic operator intends possibly to subcontract  the following proportion (i.e. percentage) of the contract. Please note that if the economic operator has decided to subcontract a part of the contract and relies on the subcontractor’s capacities to perform that part, then please fill in a separate ESPD for such subcontractors, see Part II, Section C above.</t>
+  </si>
+  <si>
+    <t>bdf0601d-2480-4250-b870-658d0ee95be6</t>
+  </si>
+  <si>
+    <t>For public supply contracts: The economic operator will supply the required samples, descriptions or photographs of the products to be supplied, which do not need to be accompanied by certifications of authenticity.</t>
+  </si>
+  <si>
+    <t>7662b7a9-bcb8-4763-a0a7-7505d8e8470d</t>
+  </si>
+  <si>
+    <t>For public supply contracts: The economic operator will supply the required samples, descriptions or photographs of the products to be supplied and will provide certifications of authenticity where applicable.</t>
+  </si>
+  <si>
+    <t>a7669d7d-9297-43e1-9d10-691a1660187c</t>
+  </si>
+  <si>
+    <t>Can the economic operator provide the required certificates drawn up by official quality control institutes or agencies of recognised competence attesting the conformity of products clearly identified by references to the technical specifications or standards, which are set out in the relevant notice or the procurement documents?</t>
+  </si>
+  <si>
+    <t>d726bac9-e153-4e75-bfca-c5385587766d</t>
+  </si>
+  <si>
+    <t>Will the economic operator be able to produce certificates drawn up by independent bodies attesting that the economic operator complies with the required quality assurance standards, including accessibility for disabled persons?</t>
+  </si>
+  <si>
+    <t>8ed65e48-fd0d-444f-97bd-4f58da632999</t>
+  </si>
+  <si>
+    <t>Will the economic operator be able to produce certificates drawn up by independent bodies attesting that the economic operator complies with the required environmental management systems or standards?</t>
+  </si>
+  <si>
+    <t>2043338f-a38a-490b-b3ec-2607cb25a017</t>
+  </si>
+  <si>
+    <t>Only in case the procurement is reserved: is the economic operator a sheltered workshop, a 'social business' or will it provide for the performance of the contract in the context of sheltered employment programmes?</t>
+  </si>
+  <si>
+    <t>9b19e869-6c89-4cc4-bd6c-ac9ca8602165</t>
+  </si>
+  <si>
+    <t>If applicable, is the economic operator registered on an official list of approved economic operators or does it have an equivalent certificate (e.g. under a national (pre)qualification system)?</t>
+  </si>
+  <si>
+    <t>ee51100f-8e3e-40c9-8f8b-57d5a15be1f2</t>
+  </si>
+  <si>
+    <t>Is the economic operator participating in the procurement procedure together with others?</t>
+  </si>
+  <si>
+    <t>0d62c6ed-f074-4fcf-8e9f-f691351d52ad</t>
+  </si>
+  <si>
+    <t>Does the economic operator rely on the capacities of other entities in order to meet the selection criteria set out under Part IV and the criteria and rules (if any) set out under Part V below?</t>
+  </si>
+  <si>
+    <t>72c0c4b1-ca50-4667-9487-461f3eed4ed7</t>
+  </si>
+  <si>
+    <t>Does the economic operator intend to subcontract any share of the contract to third parties?</t>
+  </si>
+  <si>
+    <t>9c70375e-1264-407e-8b50-b9736bc08901</t>
+  </si>
+  <si>
+    <t>If some of these certificates or forms of documentary evidence are available electronically, please indicate for each:</t>
+  </si>
+  <si>
+    <t>PropertyGroupType</t>
+  </si>
+  <si>
+    <t>PROPERTY GROUP TYPE</t>
+  </si>
+  <si>
+    <t>ON*</t>
+  </si>
+  <si>
+    <t>ONTRUE</t>
+  </si>
+  <si>
+    <t>ONFALSE</t>
+  </si>
+  <si>
+    <t>Process the group always</t>
+  </si>
+  <si>
+    <t>Process the group if the previous question was and INDICATOR answered with the value 'true'</t>
+  </si>
+  <si>
+    <t>Process the group if the previous question was and INDICATOR answered with the value 'false'</t>
+  </si>
+  <si>
     <t>An identifier for a person, entity or object (e.g. a Party, a Lot, etc.)</t>
   </si>
   <si>
-    <t>FinancialRatioType</t>
-  </si>
-  <si>
-    <t>FINANCIAL RATIO TYPE</t>
-  </si>
-  <si>
-    <t>BACH</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>R11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Competitive procedure with negotiation </t>
-  </si>
-  <si>
-    <t>Innovation partnership</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>R14</t>
-  </si>
-  <si>
-    <t>R15</t>
-  </si>
-  <si>
-    <t>R16</t>
-  </si>
-  <si>
-    <t>Assets to Equity ratio</t>
-  </si>
-  <si>
-    <t>Total balance sheet/Total equity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liabilities to Equity ratio </t>
-  </si>
-  <si>
-    <t>Total liabilities/Total equity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current assets/Total assets </t>
-  </si>
-  <si>
-    <t>Current assets/Total balance sheet</t>
-  </si>
-  <si>
-    <t>Other financial assets and cash and bank/ Total assets</t>
-  </si>
-  <si>
-    <t>Other financial assets and cash and bank/Total balance sheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-current debt/ Total assets </t>
-  </si>
-  <si>
-    <t>Non-current debt/Total balance sheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current debt/Total assets </t>
-  </si>
-  <si>
-    <t>Current debt/Total balance sheet</t>
-  </si>
-  <si>
-    <t>R21</t>
-  </si>
-  <si>
-    <t>R22</t>
-  </si>
-  <si>
-    <t>R23</t>
-  </si>
-  <si>
-    <t>R24</t>
-  </si>
-  <si>
-    <t>R25</t>
-  </si>
-  <si>
-    <t>R26</t>
-  </si>
-  <si>
-    <t>R27</t>
-  </si>
-  <si>
-    <t>Financial income net of charges other than interest/EBITDA</t>
-  </si>
-  <si>
-    <t>EBITDA/Interest on financial debt</t>
-  </si>
-  <si>
-    <t>EBITDA/Interest on financial debts</t>
-  </si>
-  <si>
-    <t>Interest burden</t>
-  </si>
-  <si>
-    <t>EBT/EBIT</t>
-  </si>
-  <si>
-    <t>Interest and similar charges/Net turnove</t>
-  </si>
-  <si>
-    <t>Interest and similar charges/Net turnover</t>
-  </si>
-  <si>
-    <t>Interest and similar charges/Gross operating profit</t>
-  </si>
-  <si>
-    <t>Interest and similar charges/ Gross operating profit</t>
-  </si>
-  <si>
-    <t>Net financial income/Gross operating profit</t>
-  </si>
-  <si>
-    <t>Financial income net of charges/ Gross operating profit</t>
-  </si>
-  <si>
-    <t>Gross operating profit/Total net debt</t>
-  </si>
-  <si>
-    <t>R31</t>
-  </si>
-  <si>
-    <t>R32</t>
-  </si>
-  <si>
-    <t>R33</t>
-  </si>
-  <si>
-    <t>R34</t>
-  </si>
-  <si>
-    <t>R35</t>
-  </si>
-  <si>
-    <t>R36</t>
-  </si>
-  <si>
-    <t>R37</t>
-  </si>
-  <si>
-    <t>R38</t>
-  </si>
-  <si>
-    <t>R39</t>
-  </si>
-  <si>
-    <t>R310</t>
-  </si>
-  <si>
-    <t>Gross value added/Net turnove</t>
-  </si>
-  <si>
-    <t>Gross operating profit/Net turnover (ROS)</t>
-  </si>
-  <si>
-    <t>Gross operating profit/Net turnover</t>
-  </si>
-  <si>
-    <t>EBITDA/Net turnove</t>
-  </si>
-  <si>
-    <t>EBITDA/Net turnover</t>
-  </si>
-  <si>
-    <t>Net operating profit/Net turnover</t>
-  </si>
-  <si>
-    <t>EBIT/Net turnover</t>
-  </si>
-  <si>
-    <t>EBT/Net turnover</t>
-  </si>
-  <si>
-    <t>Net financial income/Net turnover</t>
-  </si>
-  <si>
-    <t>Return on equity</t>
-  </si>
-  <si>
-    <t>Net profit or loss for the period/Total equity</t>
-  </si>
-  <si>
-    <t>Net operating profit/Total assets</t>
-  </si>
-  <si>
-    <t>Net operating profit/Total balance sheet</t>
-  </si>
-  <si>
-    <t>Profit or loss for the year before taxes/Equity</t>
-  </si>
-  <si>
-    <t>Profit or loss for the year before taxes/Total equity</t>
-  </si>
-  <si>
-    <t>R41</t>
-  </si>
-  <si>
-    <t>R42</t>
-  </si>
-  <si>
-    <t>Asset turnover ratio</t>
-  </si>
-  <si>
-    <t>Net turnover/Total balance sheet</t>
-  </si>
-  <si>
-    <t>Employee expenses/Gross value added</t>
-  </si>
-  <si>
-    <t>Staff costs/Gross value added</t>
-  </si>
-  <si>
-    <t>R51</t>
-  </si>
-  <si>
-    <t>R52</t>
-  </si>
-  <si>
-    <t>R53</t>
-  </si>
-  <si>
-    <t>R54</t>
-  </si>
-  <si>
-    <t>Inventories/Net turnover</t>
-  </si>
-  <si>
-    <t>Trade receivables/Net turnover</t>
-  </si>
-  <si>
-    <t>Trade payables/Net turnover</t>
-  </si>
-  <si>
-    <t>Operating working capital/Net turnover</t>
-  </si>
-  <si>
-    <t>CRITERION</t>
-  </si>
-  <si>
-    <t>CriterionElementType</t>
-  </si>
-  <si>
-    <t>CRITERION ELEMENT TYPE</t>
-  </si>
-  <si>
-    <t>Criterion</t>
-  </si>
-  <si>
-    <t>Question or requirement that requires an answer</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>A url, including e-mail addresses</t>
-  </si>
-  <si>
-    <t>NOJCN</t>
-  </si>
-  <si>
-    <t>ROJCN</t>
-  </si>
-  <si>
-    <t>LOJCN</t>
-  </si>
-  <si>
-    <t>NOJPIN</t>
-  </si>
-  <si>
-    <t>ROJPIN</t>
-  </si>
-  <si>
-    <t>LOJPIN</t>
-  </si>
-  <si>
-    <t>Prior Information Notice (PIN) published on a National Government Official Journal</t>
-  </si>
-  <si>
-    <t>Contract Notice (CN) published on a National Government Official Journal</t>
-  </si>
-  <si>
-    <t>Contract Notice (CN) published on a Local Government Official Journal</t>
-  </si>
-  <si>
-    <t>Contract Notice (CN) published on a Regional Government Official Journal</t>
-  </si>
-  <si>
-    <t>Prior Information Notice (PIN) published on a Regional Government Official Journal</t>
-  </si>
-  <si>
-    <t>Prior Information Notice (PIN) published on a Local Government Official Journal</t>
-  </si>
-  <si>
-    <t>NOJCAN</t>
-  </si>
-  <si>
-    <t>ROJCAN</t>
-  </si>
-  <si>
-    <t>LOJCAN</t>
-  </si>
-  <si>
-    <t>Contract Award Notice (CAN) published on a National Government Official Journal</t>
-  </si>
-  <si>
-    <t>Contract Award Notice (CAN) published on a Regional Government Official Journal</t>
-  </si>
-  <si>
-    <t>Contract Award Notice (CAN) published on a Local Government Official Journal</t>
-  </si>
-  <si>
-    <t>REQUIREMENT_GROUP</t>
-  </si>
-  <si>
-    <t>REQUIREMENT</t>
-  </si>
-  <si>
-    <t>QUESTION_GROUP</t>
-  </si>
-  <si>
-    <t>QUESTION</t>
-  </si>
-  <si>
-    <t>MAXIMUM_AMOUNT</t>
-  </si>
-  <si>
-    <t>MINIMUM_AMOUNT</t>
-  </si>
-  <si>
-    <t>MAXIMUM_VALUE_NUMERIC</t>
-  </si>
-  <si>
-    <t>MINIMUM_VALUE_NUMERIC</t>
-  </si>
-  <si>
-    <t>TRANSLATION_TYPE_CODE</t>
-  </si>
-  <si>
-    <t>CERTIFICATION_LEVEL_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>COPY_QUALITY_TYPE_CODE</t>
-  </si>
-  <si>
-    <t>The description of the level of the expected certification that a contracting authority requires to an economic operator in a tendering process</t>
-  </si>
-  <si>
-    <t>The type of Copy quality required by a contracting authority, expressed as a code</t>
-  </si>
-  <si>
-    <t>The type of transation that a contracting authority's requirement shall be translated for example certified translation</t>
-  </si>
-  <si>
-    <t>The minimum value the answer to a criterion question must have</t>
-  </si>
-  <si>
-    <t>The maximum value the answer to a criterion question must have</t>
-  </si>
-  <si>
-    <t>The maximum amount the answer must have</t>
-  </si>
-  <si>
-    <t>The minimum amount the answer must have</t>
-  </si>
-  <si>
-    <t>TIME</t>
-  </si>
-  <si>
-    <t>Time values (format HH:MM:SS)</t>
-  </si>
-  <si>
-    <t>REQUIREMENT_SUBGROUP</t>
-  </si>
-  <si>
-    <t>SUBCRITERION</t>
-  </si>
-  <si>
-    <t>Use to define national subcriteria or to group complex repetitive structures (e.g. more than one ratio or more than one references to works, supplies or services)</t>
-  </si>
-  <si>
-    <t>Group of requirements or remarks (captions)</t>
-  </si>
-  <si>
-    <t>Requirement, remark, additional information (captions)</t>
-  </si>
-  <si>
-    <t>Group of questions, each question requiring an answer</t>
-  </si>
-  <si>
-    <t>QUESTION_SUBGROUP</t>
-  </si>
-  <si>
-    <t>A subgroup of questions inside a group or a subgroup of question</t>
-  </si>
-  <si>
-    <t>A subgroup of requirements or remarks (captions) inside a group or subgroup of requirements</t>
-  </si>
-  <si>
-    <t>CAPTION</t>
-  </si>
-  <si>
-    <t>A text label</t>
-  </si>
-  <si>
-    <t>Additional line in a description (for descriptions that can be split in several lines)</t>
-  </si>
-  <si>
-    <t>ADDITIONAL_DESCRIPTION_LINE</t>
-  </si>
-  <si>
-    <t>02.00.00</t>
-  </si>
-  <si>
-    <t>LEGISLATION</t>
-  </si>
-  <si>
-    <t>An instance of a Legislation class</t>
-  </si>
-  <si>
-    <t>UUID</t>
-  </si>
-  <si>
-    <t>005eb9ed-1347-4ca3-bb29-9bc0db64e1ab</t>
-  </si>
-  <si>
-    <t>Has the economic operator itself or any person who is a member of its administrative, management or supervisory body or has powers of representation, decision or control therein been the subject of a conviction by final judgment for participation in a criminal organisation, by a conviction rendered at the most five years ago or in which an exclusion period set out directly in the conviction continues to be applicable? As defined in Article 2 of Council Framework Decision 2008/841/JHA of 24 October 2008 on the fight against organised crime (OJ L 300, 11.11.2008, p. 42).","EXCLUSION.CRIMINAL_CONVICTIONS","57(1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>c27b7c4e-c837-4529-b867-ed55ce639db5</t>
-  </si>
-  <si>
-    <t>Has the economic operator itself or any person who is a member of its administrative, management or supervisory body or has powers of representation, decision or control therein been the subject of a conviction by final judgment for corruption, by a conviction rendered at the most five years ago or in which an exclusion period set out directly in the conviction continues to be applicable? As defined in Article 3 of the Convention on the fight against corruption involving officials of the European Communities or officials of Member States of the European Union, OJ C 195, 25.6.1997, p. 1, and in Article 2(1) of Council Framework Decision 2003/568/JHA of 22 July 2003 on combating corruption in the private sector (OJ L 192, 31.7.2003, p. 54). This exclusion ground also includes corruption as defined in the national law of the contracting authority (contracting entity) or the economic operator.</t>
-  </si>
-  <si>
-    <t>297d2323-3ede-424e-94bc-a91561e6f320</t>
-  </si>
-  <si>
-    <t>d486fb70-86b3-4e75-97f2-0d71b5697c7d</t>
-  </si>
-  <si>
-    <t>Has the economic operator itself or any person who is a member of its administrative, management or supervisory body or has powers of representation, decision or control therein been the subject of a conviction by final judgment for terrorist offences or offences linked to terrorist activities, by a conviction rendered at the most five years ago or in which an exclusion period set out directly in the conviction continues to be applicable? As defined in Articles 1 and 3 of Council Framework Decision of 13 June 2002 on combating terrorism (OJ L 164, 22.6.2002, p. 3). This exclusion ground also includes inciting or aiding or abetting or attempting to commit an offence, as referred to in Article 4 of that Framework Decision.</t>
-  </si>
-  <si>
-    <t>b61bbeb7-690e-4a40-bc68-d6d4ecfaa3d4</t>
-  </si>
-  <si>
-    <t>Has the economic operator breached its obligations relating to the payment of taxes, both in the country in which it is established and in Member State of the contracting authority or contracting entity if other than the country of establishment?</t>
-  </si>
-  <si>
-    <t>7d85e333-bbab-49c0-be8d-c36d71a72f5e</t>
-  </si>
-  <si>
-    <t>Has the economic operator breached its obligations relating to the payment social security contributions, both in the country in which it is established and in Member State of the contracting authority or contracting entity if other than the country of establishment?</t>
-  </si>
-  <si>
-    <t>a80ddb62-d25b-4e4e-ae22-3968460dc0a9</t>
-  </si>
-  <si>
-    <t>Has the economic operator, to its knowledge, breached its obligations in the fields of environmental law? As referred to for the purposes of this procurement in national law, in the relevant notice or the procurement documents or in Article 18(2) of Directive 2014/24/EU.</t>
-  </si>
-  <si>
-    <t>a261a395-ed17-4939-9c75-b9ff1109ca6e</t>
-  </si>
-  <si>
-    <t>Has the economic operator, to its knowledge, breached its obligations in the fields of social law? As referred to for the purposes of this procurement in national law, in the relevant notice or the procurement documents or in Article 18(2) of Directive 2014/24/EU.</t>
-  </si>
-  <si>
-    <t>a34b70d6-c43d-4726-9a88-8e2b438424bf</t>
-  </si>
-  <si>
-    <t>Has the economic operator, to its knowledge, breached its obligations in the fields of labour law? As referred to for the purposes of this procurement in national law, in the relevant notice or the procurement documents or in Article 18(2) of Directive 2014/24/EU.</t>
-  </si>
-  <si>
-    <t>d3732c09-7d62-4edc-a172-241da6636e7c</t>
-  </si>
-  <si>
-    <t>Is the economic operator bankrupt? This information needs not be given if exclusion of economic operators in this case has been made mandatory under the applicable national law without any possibility of derogation where the economic operator is nevertheless able to perform the contract.</t>
-  </si>
-  <si>
-    <t>396f288a-e267-4c20-851a-ed4f7498f137</t>
-  </si>
-  <si>
-    <t>Is the economic operator the subject of insolvency or winding-up? This information needs not be given if exclusion of economic operators in this case has been made mandatory under the applicable national law without any possibility of derogation where the economic operator is nevertheless able to perform the contract.</t>
-  </si>
-  <si>
-    <t>68918c7a-f5bc-4a1a-a62f-ad8983600d48</t>
-  </si>
-  <si>
-    <t>Is the economic operator in arrangement with creditors? This information needs not be given if exclusion of economic operators in this case has been made mandatory under the applicable national law without any possibility of derogation where the economic operator is nevertheless able to perform the contract.</t>
-  </si>
-  <si>
-    <t>daffa2a9-9f8f-4568-8be8-7b8bf306d096</t>
-  </si>
-  <si>
-    <t>Is the economic operator in any analogous situation like bankruptcy arising from a similar procedure under national laws and regulations? This information needs not be given if exclusion of economic operators in this case has been made mandatory under the applicable national law without any possibility of derogation where the economic operator is nevertheless able to perform the contract.</t>
-  </si>
-  <si>
-    <t>8fda202a-0c37-41bb-9d7d-de3f49edbfcb</t>
-  </si>
-  <si>
-    <t>Are the assets of the economic operator being administered by a liquidator or by the court?  This information needs not be given if exclusion of economic operators in this case has been made mandatory under the applicable national law without any possibility of derogation where the economic operator is nevertheless able to perform the contract.</t>
-  </si>
-  <si>
-    <t>166536e2-77f7-455c-b018-70582474e4f6</t>
-  </si>
-  <si>
-    <t>514d3fde-1e3e-4dcd-b02a-9f984d5bbda3</t>
-  </si>
-  <si>
-    <t>56d13e3d-76e8-4f23-8af6-13e60a2ee356</t>
-  </si>
-  <si>
-    <t>Has the economic operator entered into agreements with other economic operators aimed at distorting competition?</t>
-  </si>
-  <si>
-    <t>b1b5ac18-f393-4280-9659-1367943c1a2e</t>
-  </si>
-  <si>
-    <t>Is the economic operator aware of any conflict of interest, as indicated in national law, the relevant notice or the procurement documents due to its participation in the procurement procedure?</t>
-  </si>
-  <si>
-    <t>61874050-5130-4f1c-a174-720939c7b483</t>
-  </si>
-  <si>
-    <t>Has the economic operator or an undertaking related to it advised the contracting authority or contracting entity or otherwise been involved in the preparation of the procurement procedure?</t>
-  </si>
-  <si>
-    <t>3293e92b-7f3e-42f1-bee6-a7641bb04251</t>
-  </si>
-  <si>
-    <t>Has the economic operator experienced that a prior public contract, a prior contract with a contracting entity or a prior concession contract was terminated early, or that damages or other comparable sanctions were imposed in connection with that prior contract?</t>
-  </si>
-  <si>
-    <t>696a75b2-6107-428f-8b74-82affb67e184</t>
-  </si>
-  <si>
-    <t>Can the economic operator confirm the four exclusion grounds, that it has not been guilty of serious misrepresentation in supplying the information required for the verification of the absence of grounds for exclusion or the fulfilment of the selection criteria, that it has not withheld such information, it has been able, without delay, to submit the supporting documents required by a contracting authority or contracting entity, and it has not undertaken to unduly influence the decision making process of the contracting authority or contracting entity, to obtain confidential information that may confer upon it undue advantages in the procurement procedure or to negligently provide misleading information that may have a material influence on decisions concerning exclusion, selection or award?</t>
-  </si>
-  <si>
-    <t>63adb07d-db1b-4ef0-a14e-a99785cf8cf6</t>
-  </si>
-  <si>
-    <t>Other exclusion grounds that may be foreseen in the national legislation of the contracting authority’s or contracting entity’s Member State. Do the purely national grounds of exclusion, which are specified in the relevant notice or in the procurement documents, apply?</t>
-  </si>
-  <si>
-    <t>6ee55a59-6adb-4c3a-b89f-e62a7ad7be7f</t>
-  </si>
-  <si>
-    <t>It is enrolled in relevant professional registers kept in the Member State of its establishment as described in Annex XI of Directive 2014/24/EU; economic operators from certain Member States may have to comply with other requirements set out in that Annex.</t>
-  </si>
-  <si>
-    <t>87b3fa26-3549-4f92-b8e0-3fd8f04bf5c7</t>
-  </si>
-  <si>
-    <t>It is enrolled in trade registers kept in the Member State of its establishment as described in Annex XI of Directive 2014/24/EU; economic operators from certain Member States may have to comply with other requirements set out in that Annex.</t>
-  </si>
-  <si>
-    <t>9eeb6d5c-0eb8-48e8-a4c5-5087a7c095a4</t>
-  </si>
-  <si>
-    <t>Is a particular membership of a particular organisation needed in order to be able to perform the service in question in the country of establishment of the economic operator?</t>
-  </si>
-  <si>
-    <t>73f10e36-ed7a-412e-995c-aa76463e3776</t>
-  </si>
-  <si>
-    <t>499efc97-2ac1-4af2-9e84-323c2ca67747</t>
-  </si>
-  <si>
-    <t>Its general yearly turnover for the number of financial years required in the relevant notice, the procurement documents or the ESPD is as follows:</t>
-  </si>
-  <si>
-    <t>b16cb9fc-6cb7-4585-9302-9533b415cf48</t>
-  </si>
-  <si>
-    <t>Its average yearly turnover for the number of years required in the relevant notice, the procurement documents or the ESPD is as follows:</t>
-  </si>
-  <si>
-    <t>074f6031-55f9-4e99-b9a4-c4363e8bc315</t>
-  </si>
-  <si>
-    <t>Its specific yearly turnover in the business area covered by the contract for the number of financial years required in the relevant notice, the procurement documents or the ESPD is as follows:</t>
-  </si>
-  <si>
-    <t>d3dfb714-f558-4512-bbc5-e456fa2339de</t>
-  </si>
-  <si>
-    <t>Its specific average yearly turnover in the business area covered by the contract for the number of years required in the relevant notice, the procurement documents or the ESPD is as follows:</t>
-  </si>
-  <si>
-    <t>77f481ce-ffb6-483f-8e2b-c78db5e68292</t>
-  </si>
-  <si>
-    <t>In case the information concerning turnover (general or specific) is not available for the entire period required, please state the date on which the economic operator was set up or started trading:</t>
-  </si>
-  <si>
-    <t>e4d37adc-08cd-4f4d-a8d8-32b62b0a1f46</t>
-  </si>
-  <si>
-    <t>7604bd40-4462-4086-8763-a50da51a869c</t>
-  </si>
-  <si>
-    <t>The insured amount in its professional risk indemnity insurance is the following:</t>
-  </si>
-  <si>
-    <t>ab0e7f2e-6418-40e2-8870-6713123e41ad</t>
-  </si>
-  <si>
-    <t>Concerning the other economic or financial requirements, if any, that may have been specified in the relevant notice or the procurement documents, the economic operator declares that:</t>
-  </si>
-  <si>
-    <t>cdd3bb3e-34a5-43d5-b668-2aab86a73822</t>
-  </si>
-  <si>
-    <t>For public works contracts only: During the reference period, the economic operator has performed the following works of the specified type. Contracting authorities may require up to five years and allow experience dating from more than five years.</t>
-  </si>
-  <si>
-    <t>3a18a175-1863-4b1d-baef-588ce61960ca</t>
-  </si>
-  <si>
-    <t>For public supply contracts only: During the reference period, the economic operator has delivered the following principal deliveries of the type specified. Contracting authorities may require up to three years and allow experience dating from more than three years.</t>
-  </si>
-  <si>
-    <t>5e506c16-26ab-4e32-bb78-b27f87dc0565</t>
-  </si>
-  <si>
-    <t>For public service contracts only: During the reference period, the economic operator has provided the following main services of the type specified. Contracting authorities may require up to three years and allow experience dating from more than three years.</t>
-  </si>
-  <si>
-    <t>3aaca389-4a7b-406b-a4b9-080845d127e7</t>
-  </si>
-  <si>
-    <t>It can call upon the following technicians or technical bodies, especially those responsible for quality control. For technicians or technical bodies not belonging directly to the economic operator's undertaking but on whose capacities the economic operator relies as set out under Part II, Section C, separate ESPD forms must be filled in.</t>
-  </si>
-  <si>
-    <t>c599c130-b29f-461e-a187-4e16c7d40db7</t>
-  </si>
-  <si>
-    <t>In the case of public works contracts, the economic operator will be able to call on the following technicians or technical bodies to carry out the work:</t>
-  </si>
-  <si>
-    <t>4bf996d9-439c-40c6-9ab9-980a48cb55a1</t>
-  </si>
-  <si>
-    <t>It uses the following technical facilities and measures for ensuring quality and its study and research facilities are as follows:</t>
-  </si>
-  <si>
-    <t>CRITERION.SELECTION.TECHNICAL_PROFESSIONAL_ABILITY.TECHNICAL.FACILITIES.FOR_STUDY_RESEARCH</t>
-  </si>
-  <si>
-    <t>90a2e100-44cc-45d3-9970-69d6714f1596</t>
-  </si>
-  <si>
-    <t>It uses the following study and research facilities are as follows:</t>
-  </si>
-  <si>
-    <t>dc12a151-7fdf-4733-a8f0-30f667292e66</t>
-  </si>
-  <si>
-    <t>It will be able to apply the following supply chain management and tracking systems when performing the contract:</t>
-  </si>
-  <si>
-    <t>c8809aa1-29b6-4f27-ae2f-27e612e394db</t>
-  </si>
-  <si>
-    <t>For complex products or services to be supplied or, exceptionally, for products or services which are required for a special purpose: The economic operator will allow checks  to be conducted on the production capacities or the technical capacity of the economic operator and, where necessary, on the means of study and research which are available to it and on the quality control measures? The check is to be performed by the contracting authority or, in case the latter consents to this, on its behalf by a competent official body of the country in which the supplier or service provider is established.</t>
-  </si>
-  <si>
-    <t>CRITERION.SELECTION.TECHNICAL_PROFESSIONAL_ABILITY.PROFESSIONAL.QUALIFICATIONS</t>
-  </si>
-  <si>
-    <t>07301031-2270-41af-8e7e-66fe0c777107</t>
-  </si>
-  <si>
-    <t>The following educational and professional qualifications are held by the service provider or the contractor itself, and/or (depending on the requirements set out in the relevant notice or the procurement documents by its managerial staff.</t>
-  </si>
-  <si>
-    <t>9460457e-b43d-48a9-acd1-615de6ddd33e</t>
-  </si>
-  <si>
-    <t>The economic operator will be able to apply the following environmental management measures when performing the contract:</t>
-  </si>
-  <si>
-    <t>6346959b-e097-4ea1-89cd-d1b4c131ea4d</t>
-  </si>
-  <si>
-    <t>The economic operator’s number of managerial staff for the last three years were as follows:</t>
-  </si>
-  <si>
-    <t>1f49b3f0-d50f-43f6-8b30-4bafab108b9b</t>
-  </si>
-  <si>
-    <t>The economic operator’s average annual manpower for the last three years were as follows:</t>
-  </si>
-  <si>
-    <t>cc18c023-211d-484d-a32e-52f3f970285f</t>
-  </si>
-  <si>
-    <t>The following tools, plant or technical equipment will be available to it for performing the contract:</t>
-  </si>
-  <si>
-    <t>612a1625-118d-4ea4-a6db-413184e7c0a8</t>
-  </si>
-  <si>
-    <t>The economic operator intends possibly to subcontract  the following proportion (i.e. percentage) of the contract. Please note that if the economic operator has decided to subcontract a part of the contract and relies on the subcontractor’s capacities to perform that part, then please fill in a separate ESPD for such subcontractors, see Part II, Section C above.</t>
-  </si>
-  <si>
-    <t>bdf0601d-2480-4250-b870-658d0ee95be6</t>
-  </si>
-  <si>
-    <t>For public supply contracts: The economic operator will supply the required samples, descriptions or photographs of the products to be supplied, which do not need to be accompanied by certifications of authenticity.</t>
-  </si>
-  <si>
-    <t>7662b7a9-bcb8-4763-a0a7-7505d8e8470d</t>
-  </si>
-  <si>
-    <t>For public supply contracts: The economic operator will supply the required samples, descriptions or photographs of the products to be supplied and will provide certifications of authenticity where applicable.</t>
-  </si>
-  <si>
-    <t>a7669d7d-9297-43e1-9d10-691a1660187c</t>
-  </si>
-  <si>
-    <t>Can the economic operator provide the required certificates drawn up by official quality control institutes or agencies of recognised competence attesting the conformity of products clearly identified by references to the technical specifications or standards, which are set out in the relevant notice or the procurement documents?</t>
-  </si>
-  <si>
-    <t>d726bac9-e153-4e75-bfca-c5385587766d</t>
-  </si>
-  <si>
-    <t>Will the economic operator be able to produce certificates drawn up by independent bodies attesting that the economic operator complies with the required quality assurance standards, including accessibility for disabled persons?</t>
-  </si>
-  <si>
-    <t>8ed65e48-fd0d-444f-97bd-4f58da632999</t>
-  </si>
-  <si>
-    <t>Will the economic operator be able to produce certificates drawn up by independent bodies attesting that the economic operator complies with the required environmental management systems or standards?</t>
-  </si>
-  <si>
-    <t>2043338f-a38a-490b-b3ec-2607cb25a017</t>
-  </si>
-  <si>
-    <t>Only in case the procurement is reserved: is the economic operator a sheltered workshop, a 'social business' or will it provide for the performance of the contract in the context of sheltered employment programmes?</t>
-  </si>
-  <si>
-    <t>9b19e869-6c89-4cc4-bd6c-ac9ca8602165</t>
-  </si>
-  <si>
-    <t>If applicable, is the economic operator registered on an official list of approved economic operators or does it have an equivalent certificate (e.g. under a national (pre)qualification system)?</t>
-  </si>
-  <si>
-    <t>ee51100f-8e3e-40c9-8f8b-57d5a15be1f2</t>
-  </si>
-  <si>
-    <t>Is the economic operator participating in the procurement procedure together with others?</t>
-  </si>
-  <si>
-    <t>0d62c6ed-f074-4fcf-8e9f-f691351d52ad</t>
-  </si>
-  <si>
-    <t>Does the economic operator rely on the capacities of other entities in order to meet the selection criteria set out under Part IV and the criteria and rules (if any) set out under Part V below?</t>
-  </si>
-  <si>
-    <t>72c0c4b1-ca50-4667-9487-461f3eed4ed7</t>
-  </si>
-  <si>
-    <t>Does the economic operator intend to subcontract any share of the contract to third parties?</t>
-  </si>
-  <si>
-    <t>9c70375e-1264-407e-8b50-b9736bc08901</t>
-  </si>
-  <si>
-    <t>If some of these certificates or forms of documentary evidence are available electronically, please indicate for each:</t>
-  </si>
-  <si>
-    <t>PropertyGroupType</t>
-  </si>
-  <si>
-    <t>PROPERTY GROUP TYPE</t>
-  </si>
-  <si>
-    <t>ON*</t>
-  </si>
-  <si>
-    <t>ONTRUE</t>
-  </si>
-  <si>
-    <t>ONFALSE</t>
-  </si>
-  <si>
-    <t>Process the group always</t>
-  </si>
-  <si>
-    <t>Process the group if the previous question was and INDICATOR answered with the value 'true'</t>
-  </si>
-  <si>
-    <t>Process the group if the previous question was and INDICATOR answered with the value 'false'</t>
+    <t>EVIDENCE_IDENTIFIER</t>
+  </si>
+  <si>
+    <t>Points at the instance of an evidence</t>
   </si>
 </sst>
 </file>
@@ -8063,7 +8063,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -8071,7 +8071,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -8079,7 +8079,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -8087,7 +8087,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -8146,18 +8146,18 @@
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -8229,79 +8229,79 @@
         <v>84</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>1410</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>1413</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>1419</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>1420</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>1423</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>1421</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>1424</v>
       </c>
     </row>
   </sheetData>
@@ -8330,7 +8330,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -8338,7 +8338,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -8346,7 +8346,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -8354,7 +8354,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -8413,42 +8413,42 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
   </sheetData>
@@ -8480,7 +8480,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -8488,7 +8488,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -8496,7 +8496,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -8504,7 +8504,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -8561,51 +8561,51 @@
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="C13" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="C14" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="C15" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="C16" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
   </sheetData>
@@ -8929,7 +8929,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -8937,7 +8937,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -8945,7 +8945,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -8983,7 +8983,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -9008,326 +9008,326 @@
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="C13" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="C14" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="C15" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="C16" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="C17" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="C18" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B19" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="C19" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="B20" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="C20" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="B21" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="C21" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="B22" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="C22" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="B23" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="C23" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="B24" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="C24" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="B25" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="C25" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>1386</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>1388</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B37" s="12" t="s">
         <v>1387</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>1390</v>
-      </c>
       <c r="C37" s="12" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
     </row>
   </sheetData>
@@ -9357,7 +9357,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -9365,7 +9365,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -9373,7 +9373,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -9381,7 +9381,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -9440,18 +9440,18 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>1287</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>1289</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>1288</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>1290</v>
       </c>
     </row>
   </sheetData>
@@ -9479,7 +9479,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -9487,7 +9487,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -9495,7 +9495,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -9503,7 +9503,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -9594,10 +9594,10 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -9629,7 +9629,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -9637,7 +9637,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -9650,7 +9650,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -9707,40 +9707,40 @@
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="C13" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="B14" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="C14" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="B15" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="C15" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
   </sheetData>
@@ -9769,7 +9769,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -9777,7 +9777,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -9785,7 +9785,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -9793,7 +9793,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -9852,18 +9852,18 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -10083,7 +10083,7 @@
         <v>10</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -10091,7 +10091,7 @@
         <v>11</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
     </row>
   </sheetData>
@@ -10144,7 +10144,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -10409,7 +10409,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -10650,7 +10650,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -10664,7 +10664,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -10672,7 +10672,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -10735,26 +10735,26 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="43" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>1582</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>1585</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="43" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>1583</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>1586</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="43" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>1584</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>1587</v>
       </c>
     </row>
   </sheetData>
@@ -10786,7 +10786,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -10794,7 +10794,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -10802,7 +10802,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -10810,7 +10810,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -10871,29 +10871,29 @@
         <v>31</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="33" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A14" s="33" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
   </sheetData>
@@ -11532,7 +11532,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -11540,7 +11540,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -11548,7 +11548,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -11556,7 +11556,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -11615,18 +11615,18 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>1312</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>1314</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>1313</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>1315</v>
       </c>
     </row>
   </sheetData>
@@ -11823,7 +11823,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -11831,7 +11831,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -11839,7 +11839,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -11877,7 +11877,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -11885,7 +11885,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -11910,170 +11910,170 @@
     </row>
     <row r="13" spans="1:2" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -12081,191 +12081,191 @@
         <v>8</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -12273,7 +12273,7 @@
         <v>133</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -12281,79 +12281,79 @@
         <v>134</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -12361,87 +12361,87 @@
         <v>5</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -12449,7 +12449,7 @@
         <v>16</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -12457,7 +12457,7 @@
         <v>1</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -12465,39 +12465,39 @@
         <v>2</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -12505,7 +12505,7 @@
         <v>3</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -12513,175 +12513,175 @@
         <v>4</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -12689,15 +12689,15 @@
         <v>217</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -12705,79 +12705,79 @@
         <v>34</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -12785,183 +12785,183 @@
         <v>35</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -12969,15 +12969,15 @@
         <v>19</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -12985,143 +12985,143 @@
         <v>9</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -13129,103 +13129,103 @@
         <v>20</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -13233,103 +13233,103 @@
         <v>21</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -13337,39 +13337,39 @@
         <v>12</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
@@ -13377,39 +13377,39 @@
         <v>13</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -13417,47 +13417,47 @@
         <v>14</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
@@ -13465,55 +13465,55 @@
         <v>132</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
@@ -13521,7 +13521,7 @@
         <v>33</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
@@ -13529,55 +13529,55 @@
         <v>15</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
@@ -13585,327 +13585,327 @@
         <v>0</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
   </sheetData>
@@ -13932,7 +13932,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -13940,7 +13940,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -13948,7 +13948,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -13956,7 +13956,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -14015,90 +14015,90 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>1400</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>1403</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
     </row>
   </sheetData>
@@ -14113,7 +14113,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14126,7 +14128,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -14142,7 +14144,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -14150,7 +14152,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -14212,31 +14214,31 @@
         <v>270</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>280</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>282</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -14244,151 +14246,151 @@
         <v>269</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
-        <v>271</v>
+      <c r="A18" s="23" t="s">
+        <v>1586</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>286</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>1317</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="23" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
     </row>
   </sheetData>
@@ -14407,8 +14409,8 @@
   </sheetPr>
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14424,7 +14426,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -14432,7 +14434,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -14440,7 +14442,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -14448,7 +14450,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -14502,716 +14504,716 @@
         <v>30</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="41" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="41" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="41" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="41" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="42" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="D19" s="42"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="42" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="D20" s="42"/>
     </row>
     <row r="21" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="41" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="41" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="41" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="42" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="D24" s="42"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="42" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="D25" s="42"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="42" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="D26" s="42"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="42" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="D27" s="42"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="42" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="D28" s="42"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="42" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="C29" s="42"/>
       <c r="D29" s="42"/>
     </row>
     <row r="30" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="41" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="41" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="42" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="D32" s="42"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="42" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="D33" s="42"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="42" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="D34" s="42"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="42" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="D35" s="42"/>
     </row>
     <row r="36" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="41" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="41" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="42" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="D38" s="42"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="42" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B39" s="42" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="C39" s="42" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="D39" s="42"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="42" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="D40" s="42"/>
     </row>
     <row r="41" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="41" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B41" s="41" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="41" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B42" s="41" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="C42" s="41" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="41" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B43" s="41" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="C43" s="41" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="41" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B44" s="41" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="C44" s="41" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="41" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B45" s="41" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="C45" s="41" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="41" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B46" s="41" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="41" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B47" s="41" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="41" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B48" s="41" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="C48" s="41" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="42" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B49" s="42" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="C49" s="42" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="D49" s="42"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="42" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B50" s="42" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="C50" s="42" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="D50" s="42"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="42" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B51" s="42" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="C51" s="42" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="D51" s="42"/>
     </row>
     <row r="52" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="41" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="B52" s="41" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="41" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B53" s="41" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="41" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="B54" s="41" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="41" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="B55" s="41" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="41" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B56" s="41" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="41" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="C57" s="41" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="41" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="C58" s="41" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="41" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="C59" s="41" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="60" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="41" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B60" s="41" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="C60" s="41" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="41" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B61" s="41" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="C61" s="41" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="41" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B62" s="41" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="41" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B63" s="41" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="64" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="41" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B64" s="41" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="41" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B65" s="41" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="C65" s="41" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="66" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="41" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B66" s="41" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="C66" s="41" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="41" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B67" s="41" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="C67" s="41" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="41" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B68" s="41" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="C68" s="41" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="42" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B69" s="42" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="C69" s="42" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="D69" s="42"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="42" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B70" s="42" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="C70" s="42" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="D70" s="42"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="42" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B71" s="42" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="C71" s="42" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="D71" s="42"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="42" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B72" s="42" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="C72" s="42" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="D72" s="42"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="42" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B73" s="42" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="C73" s="42" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="D73" s="42"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="42" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B74" s="42" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="C74" s="42" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="D74" s="42"/>
     </row>
@@ -15243,7 +15245,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -15251,7 +15253,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -15259,7 +15261,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -15267,7 +15269,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -15328,1975 +15330,1975 @@
         <v>31</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C13" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>785</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="C17" t="s">
         <v>787</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>788</v>
-      </c>
-      <c r="C17" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C19" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>792</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="C20" t="s">
         <v>794</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>795</v>
-      </c>
-      <c r="C20" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C22" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C23" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C24" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C25" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C26" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C27" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C28" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C29" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>813</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="C30" t="s">
         <v>815</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>816</v>
-      </c>
-      <c r="C30" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>816</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="C31" t="s">
         <v>818</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>819</v>
-      </c>
-      <c r="C31" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C32" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C33" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C34" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C35" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C36" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C37" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C38" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C39" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>835</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="C40" t="s">
         <v>837</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>838</v>
-      </c>
-      <c r="C40" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C41" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>840</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="C42" t="s">
         <v>842</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>843</v>
-      </c>
-      <c r="C42" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C43" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C44" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C45" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>849</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="C46" t="s">
         <v>851</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>852</v>
-      </c>
-      <c r="C46" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C47" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C48" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C49" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C50" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>860</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="C51" t="s">
         <v>862</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>863</v>
-      </c>
-      <c r="C51" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C52" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C53" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C54" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>869</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="C55" t="s">
         <v>871</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>872</v>
-      </c>
-      <c r="C55" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C56" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C57" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C58" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C59" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C60" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C61" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>884</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="C62" t="s">
         <v>886</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>887</v>
-      </c>
-      <c r="C62" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C63" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>889</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="C64" t="s">
         <v>891</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>892</v>
-      </c>
-      <c r="C64" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>892</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="C65" t="s">
         <v>894</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>895</v>
-      </c>
-      <c r="C65" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C66" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C67" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C68" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C69" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C70" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C71" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C72" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>909</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="C73" t="s">
         <v>911</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>912</v>
-      </c>
-      <c r="C73" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C74" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C75" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C76" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C77" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C78" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C79" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>924</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="C80" t="s">
         <v>926</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>927</v>
-      </c>
-      <c r="C80" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C81" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>929</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="C82" t="s">
         <v>931</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>932</v>
-      </c>
-      <c r="C82" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C83" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C84" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C85" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C86" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C87" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C88" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C89" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C90" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>948</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="C91" t="s">
         <v>950</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>951</v>
-      </c>
-      <c r="C91" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>951</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="C92" t="s">
         <v>953</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>954</v>
-      </c>
-      <c r="C92" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C93" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C94" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C95" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>960</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="C96" t="s">
         <v>962</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="C96" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C97" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C98" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C99" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C100" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C101" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C102" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C103" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>977</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="C104" t="s">
         <v>979</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>980</v>
-      </c>
-      <c r="C104" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>980</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="C105" t="s">
         <v>982</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>983</v>
-      </c>
-      <c r="C105" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C106" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>985</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="C107" t="s">
         <v>987</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>988</v>
-      </c>
-      <c r="C107" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C108" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C109" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>992</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="C110" t="s">
         <v>994</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>995</v>
-      </c>
-      <c r="C110" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C111" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C112" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C113" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C114" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C115" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C116" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C117" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C118" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C119" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C120" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C121" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C122" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C123" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C124" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C125" t="s">
         <v>1025</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C125" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C126" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C127" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C128" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C129" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="C130" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C131" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="C132" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="C133" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="C134" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="C135" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="C136" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C137" t="s">
         <v>1050</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C137" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C138" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C139" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C140" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C141" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C142" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="27" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C144" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C145" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C146" t="s">
         <v>1067</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C146" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="C147" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C148" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="C149" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C150" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C151" t="s">
         <v>1078</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C151" t="s">
-        <v>1080</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C152" t="s">
         <v>1081</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C152" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C153" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C154" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C155" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="C156" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="C157" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C158" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="C159" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C160" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C161" t="s">
         <v>1100</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C161" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C162" t="s">
         <v>1103</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C162" t="s">
-        <v>1105</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="C163" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C164" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C165" t="s">
         <v>1110</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C165" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B166" s="4"/>
       <c r="C166" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B167" s="4"/>
       <c r="C167" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C168" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="C169" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C170" t="s">
         <v>1120</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C170" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C171" t="s">
         <v>1123</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C171" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="C172" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="C173" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C174" t="s">
         <v>1130</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C174" t="s">
-        <v>1132</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C181" t="s">
         <v>1145</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C181" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C182" t="s">
         <v>1148</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C182" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C183" t="s">
         <v>1151</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C183" t="s">
-        <v>1153</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C184" t="s">
         <v>1154</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C184" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C185" t="s">
         <v>1157</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C185" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C187" t="s">
         <v>1162</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C187" t="s">
-        <v>1164</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C191" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="C192" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C193" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="C194" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">

--- a/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-CodeLists-V02.00.00.xlsx
+++ b/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-CodeLists-V02.00.00.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="1575" windowWidth="12630" windowHeight="6420" tabRatio="884" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="7275" yWindow="1575" windowWidth="12630" windowHeight="6420" tabRatio="884" firstSheet="11" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityType" sheetId="155" r:id="rId1"/>
@@ -5297,24 +5297,6 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5332,6 +5314,24 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5413,19 +5413,19 @@
       </font>
     </dxf>
     <dxf>
-      <alignment textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -8447,7 +8447,7 @@
       <c r="A17" t="s">
         <v>1304</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="28" t="s">
         <v>1305</v>
       </c>
     </row>
@@ -8464,8 +8464,8 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:IV65536"/>
+    <sheetView tabSelected="1" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9883,7 +9883,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9975,7 +9975,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="36">
+      <c r="A13" s="30">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -9983,7 +9983,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="36">
+      <c r="A14" s="30">
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -9991,7 +9991,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="36">
+      <c r="A15" s="30">
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -9999,7 +9999,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="30" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -10007,7 +10007,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="36">
+      <c r="A17" s="30">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -10015,7 +10015,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="36">
+      <c r="A18" s="30">
         <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -10023,7 +10023,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="30" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -10031,7 +10031,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="30" t="s">
         <v>82</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -10039,7 +10039,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -10047,7 +10047,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="30" t="s">
         <v>206</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -10055,7 +10055,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="30" t="s">
         <v>208</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -10063,7 +10063,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="30" t="s">
         <v>242</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -10071,7 +10071,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="36">
+      <c r="A25" s="30">
         <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -10079,18 +10079,18 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="35">
+      <c r="A26" s="29">
         <v>10</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="29" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="35">
+      <c r="A27" s="29">
         <v>11</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="29" t="s">
         <v>1321</v>
       </c>
     </row>
@@ -10474,7 +10474,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:IV65536"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10734,7 +10734,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="37" t="s">
         <v>1579</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -10742,7 +10742,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="37" t="s">
         <v>1580</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -10750,7 +10750,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="37" t="s">
         <v>1581</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -10770,129 +10770,129 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55" style="30" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="30"/>
+    <col min="1" max="1" width="19.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55" style="40" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="39" t="s">
         <v>1282</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="41" t="s">
         <v>1258</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="39" t="s">
         <v>1282</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="42" t="s">
         <v>1455</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="41" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="41" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="31"/>
+      <c r="B7" s="41"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="42" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="42" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="41" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="41"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="40" t="s">
         <v>1188</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="43" t="s">
         <v>1259</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="40" t="s">
         <v>1262</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="40" t="s">
         <v>1263</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="43" t="s">
         <v>1260</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="40" t="s">
         <v>1261</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="40" t="s">
         <v>1264</v>
       </c>
     </row>
@@ -14113,7 +14113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -14333,7 +14333,7 @@
       <c r="A28" s="23" t="s">
         <v>1426</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="31" t="s">
         <v>1438</v>
       </c>
     </row>
@@ -14341,7 +14341,7 @@
       <c r="A29" s="23" t="s">
         <v>1427</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="31" t="s">
         <v>1439</v>
       </c>
     </row>
@@ -14422,7 +14422,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="32" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -14430,7 +14430,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="32" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -14438,7 +14438,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="32" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -14446,7 +14446,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -14454,7 +14454,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="32" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -14462,7 +14462,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="32" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -14470,13 +14470,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="32" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="32" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -14484,7 +14484,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="32" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -14492,7 +14492,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="32" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -14500,722 +14500,722 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="34" t="s">
         <v>1458</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="33" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="41" t="s">
+    <row r="13" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="35" t="s">
         <v>1195</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="35" t="s">
         <v>1459</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="35" t="s">
         <v>1460</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="35" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="41" t="s">
+    <row r="14" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="35" t="s">
         <v>1196</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="35" t="s">
         <v>1462</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="35" t="s">
         <v>1463</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="35" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="41" t="s">
+    <row r="15" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="35" t="s">
         <v>1197</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="35" t="s">
         <v>1464</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="35" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="41" t="s">
+    <row r="16" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="35" t="s">
         <v>1198</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="35" t="s">
         <v>1465</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="35" t="s">
         <v>1466</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="35" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="41" t="s">
+    <row r="17" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="35" t="s">
         <v>1199</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="35" t="s">
         <v>1461</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="35" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="41" t="s">
+    <row r="18" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="35" t="s">
         <v>1200</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="35" t="s">
         <v>1461</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="35" t="s">
         <v>1461</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="36" t="s">
         <v>1201</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="36" t="s">
         <v>1467</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="36" t="s">
         <v>1468</v>
       </c>
-      <c r="D19" s="42"/>
+      <c r="D19" s="36"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="36" t="s">
         <v>1202</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="36" t="s">
         <v>1469</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="36" t="s">
         <v>1470</v>
       </c>
-      <c r="D20" s="42"/>
-    </row>
-    <row r="21" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="41" t="s">
+      <c r="D20" s="36"/>
+    </row>
+    <row r="21" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="35" t="s">
         <v>1203</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="35" t="s">
         <v>1471</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="35" t="s">
         <v>1472</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="41" t="s">
+    <row r="22" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="35" t="s">
         <v>1204</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="35" t="s">
         <v>1473</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="35" t="s">
         <v>1474</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="41" t="s">
+    <row r="23" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="35" t="s">
         <v>1205</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="35" t="s">
         <v>1475</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="35" t="s">
         <v>1476</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="36" t="s">
         <v>1206</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="36" t="s">
         <v>1477</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="36" t="s">
         <v>1478</v>
       </c>
-      <c r="D24" s="42"/>
+      <c r="D24" s="36"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="36" t="s">
         <v>1207</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="36" t="s">
         <v>1479</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="36" t="s">
         <v>1480</v>
       </c>
-      <c r="D25" s="42"/>
+      <c r="D25" s="36"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="36" t="s">
         <v>1208</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="36" t="s">
         <v>1481</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="36" t="s">
         <v>1482</v>
       </c>
-      <c r="D26" s="42"/>
+      <c r="D26" s="36"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="36" t="s">
         <v>1209</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="36" t="s">
         <v>1483</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="36" t="s">
         <v>1484</v>
       </c>
-      <c r="D27" s="42"/>
+      <c r="D27" s="36"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="36" t="s">
         <v>1210</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="36" t="s">
         <v>1485</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="36" t="s">
         <v>1486</v>
       </c>
-      <c r="D28" s="42"/>
+      <c r="D28" s="36"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="36" t="s">
         <v>1211</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="36" t="s">
         <v>1487</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-    </row>
-    <row r="30" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="41" t="s">
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+    </row>
+    <row r="30" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="35" t="s">
         <v>1212</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="35" t="s">
         <v>1488</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="41" t="s">
+    <row r="31" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="35" t="s">
         <v>1213</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="35" t="s">
         <v>1489</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="35" t="s">
         <v>1490</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="36" t="s">
         <v>1214</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="36" t="s">
         <v>1491</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="36" t="s">
         <v>1492</v>
       </c>
-      <c r="D32" s="42"/>
+      <c r="D32" s="36"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="36" t="s">
         <v>1215</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="36" t="s">
         <v>1493</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="36" t="s">
         <v>1494</v>
       </c>
-      <c r="D33" s="42"/>
+      <c r="D33" s="36"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="36" t="s">
         <v>1216</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="36" t="s">
         <v>1495</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="C34" s="36" t="s">
         <v>1496</v>
       </c>
-      <c r="D34" s="42"/>
+      <c r="D34" s="36"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="36" t="s">
         <v>1217</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="36" t="s">
         <v>1497</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="36" t="s">
         <v>1498</v>
       </c>
-      <c r="D35" s="42"/>
-    </row>
-    <row r="36" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="41" t="s">
+      <c r="D35" s="36"/>
+    </row>
+    <row r="36" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="35" t="s">
         <v>1218</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="35" t="s">
         <v>1499</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="35" t="s">
         <v>1500</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="41" t="s">
+    <row r="37" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="35" t="s">
         <v>1219</v>
       </c>
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="35" t="s">
         <v>1501</v>
       </c>
-      <c r="C37" s="41" t="s">
+      <c r="C37" s="35" t="s">
         <v>1502</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="36" t="s">
         <v>1220</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="36" t="s">
         <v>1503</v>
       </c>
-      <c r="C38" s="42" t="s">
+      <c r="C38" s="36" t="s">
         <v>1504</v>
       </c>
-      <c r="D38" s="42"/>
+      <c r="D38" s="36"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="36" t="s">
         <v>1221</v>
       </c>
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="36" t="s">
         <v>1505</v>
       </c>
-      <c r="C39" s="42" t="s">
+      <c r="C39" s="36" t="s">
         <v>1506</v>
       </c>
-      <c r="D39" s="42"/>
+      <c r="D39" s="36"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="36" t="s">
         <v>1222</v>
       </c>
-      <c r="B40" s="42" t="s">
+      <c r="B40" s="36" t="s">
         <v>1507</v>
       </c>
-      <c r="C40" s="42" t="s">
+      <c r="C40" s="36" t="s">
         <v>1506</v>
       </c>
-      <c r="D40" s="42"/>
-    </row>
-    <row r="41" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="41" t="s">
+      <c r="D40" s="36"/>
+    </row>
+    <row r="41" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="35" t="s">
         <v>1223</v>
       </c>
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="35" t="s">
         <v>1508</v>
       </c>
-      <c r="C41" s="41" t="s">
+      <c r="C41" s="35" t="s">
         <v>1509</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="41" t="s">
+    <row r="42" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="35" t="s">
         <v>1224</v>
       </c>
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="35" t="s">
         <v>1510</v>
       </c>
-      <c r="C42" s="41" t="s">
+      <c r="C42" s="35" t="s">
         <v>1511</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="41" t="s">
+    <row r="43" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="35" t="s">
         <v>1225</v>
       </c>
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="35" t="s">
         <v>1512</v>
       </c>
-      <c r="C43" s="41" t="s">
+      <c r="C43" s="35" t="s">
         <v>1513</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="41" t="s">
+    <row r="44" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="35" t="s">
         <v>1226</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="35" t="s">
         <v>1514</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="C44" s="35" t="s">
         <v>1515</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="41" t="s">
+    <row r="45" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="35" t="s">
         <v>1227</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="35" t="s">
         <v>1516</v>
       </c>
-      <c r="C45" s="41" t="s">
+      <c r="C45" s="35" t="s">
         <v>1517</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="41" t="s">
+    <row r="46" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="35" t="s">
         <v>1228</v>
       </c>
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="35" t="s">
         <v>1518</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="41" t="s">
+    <row r="47" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="35" t="s">
         <v>1247</v>
       </c>
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="35" t="s">
         <v>1519</v>
       </c>
-      <c r="C47" s="41" t="s">
+      <c r="C47" s="35" t="s">
         <v>1520</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="41" t="s">
+    <row r="48" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="35" t="s">
         <v>1229</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="35" t="s">
         <v>1521</v>
       </c>
-      <c r="C48" s="41" t="s">
+      <c r="C48" s="35" t="s">
         <v>1522</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="42" t="s">
+      <c r="A49" s="36" t="s">
         <v>1230</v>
       </c>
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="36" t="s">
         <v>1523</v>
       </c>
-      <c r="C49" s="42" t="s">
+      <c r="C49" s="36" t="s">
         <v>1524</v>
       </c>
-      <c r="D49" s="42"/>
+      <c r="D49" s="36"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="42" t="s">
+      <c r="A50" s="36" t="s">
         <v>1231</v>
       </c>
-      <c r="B50" s="42" t="s">
+      <c r="B50" s="36" t="s">
         <v>1525</v>
       </c>
-      <c r="C50" s="42" t="s">
+      <c r="C50" s="36" t="s">
         <v>1526</v>
       </c>
-      <c r="D50" s="42"/>
+      <c r="D50" s="36"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="42" t="s">
+      <c r="A51" s="36" t="s">
         <v>1232</v>
       </c>
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="36" t="s">
         <v>1527</v>
       </c>
-      <c r="C51" s="42" t="s">
+      <c r="C51" s="36" t="s">
         <v>1528</v>
       </c>
-      <c r="D51" s="42"/>
-    </row>
-    <row r="52" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="41" t="s">
+      <c r="D51" s="36"/>
+    </row>
+    <row r="52" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="35" t="s">
         <v>1233</v>
       </c>
-      <c r="B52" s="41" t="s">
+      <c r="B52" s="35" t="s">
         <v>1529</v>
       </c>
-      <c r="C52" s="41" t="s">
+      <c r="C52" s="35" t="s">
         <v>1530</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="41" t="s">
+    <row r="53" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="35" t="s">
         <v>1234</v>
       </c>
-      <c r="B53" s="41" t="s">
+      <c r="B53" s="35" t="s">
         <v>1531</v>
       </c>
-      <c r="C53" s="41" t="s">
+      <c r="C53" s="35" t="s">
         <v>1532</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="41" t="s">
+    <row r="54" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="35" t="s">
         <v>1235</v>
       </c>
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="35" t="s">
         <v>1533</v>
       </c>
-      <c r="C54" s="41" t="s">
+      <c r="C54" s="35" t="s">
         <v>1534</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="41" t="s">
+    <row r="55" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="35" t="s">
         <v>1535</v>
       </c>
-      <c r="B55" s="41" t="s">
+      <c r="B55" s="35" t="s">
         <v>1536</v>
       </c>
-      <c r="C55" s="41" t="s">
+      <c r="C55" s="35" t="s">
         <v>1537</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="41" t="s">
+    <row r="56" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="35" t="s">
         <v>1236</v>
       </c>
-      <c r="B56" s="41" t="s">
+      <c r="B56" s="35" t="s">
         <v>1538</v>
       </c>
-      <c r="C56" s="41" t="s">
+      <c r="C56" s="35" t="s">
         <v>1539</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="41" t="s">
+    <row r="57" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="35" t="s">
         <v>1248</v>
       </c>
-      <c r="B57" s="41" t="s">
+      <c r="B57" s="35" t="s">
         <v>1540</v>
       </c>
-      <c r="C57" s="41" t="s">
+      <c r="C57" s="35" t="s">
         <v>1541</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="41" t="s">
+    <row r="58" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="35" t="s">
         <v>1542</v>
       </c>
-      <c r="B58" s="41" t="s">
+      <c r="B58" s="35" t="s">
         <v>1543</v>
       </c>
-      <c r="C58" s="41" t="s">
+      <c r="C58" s="35" t="s">
         <v>1544</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="41" t="s">
+    <row r="59" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="35" t="s">
         <v>1237</v>
       </c>
-      <c r="B59" s="41" t="s">
+      <c r="B59" s="35" t="s">
         <v>1545</v>
       </c>
-      <c r="C59" s="41" t="s">
+      <c r="C59" s="35" t="s">
         <v>1546</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="41" t="s">
+    <row r="60" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="35" t="s">
         <v>1239</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B60" s="35" t="s">
         <v>1547</v>
       </c>
-      <c r="C60" s="41" t="s">
+      <c r="C60" s="35" t="s">
         <v>1548</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="41" t="s">
+    <row r="61" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="35" t="s">
         <v>1240</v>
       </c>
-      <c r="B61" s="41" t="s">
+      <c r="B61" s="35" t="s">
         <v>1549</v>
       </c>
-      <c r="C61" s="41" t="s">
+      <c r="C61" s="35" t="s">
         <v>1550</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="41" t="s">
+    <row r="62" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="35" t="s">
         <v>1238</v>
       </c>
-      <c r="B62" s="41" t="s">
+      <c r="B62" s="35" t="s">
         <v>1551</v>
       </c>
-      <c r="C62" s="41" t="s">
+      <c r="C62" s="35" t="s">
         <v>1552</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="41" t="s">
+    <row r="63" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="35" t="s">
         <v>1241</v>
       </c>
-      <c r="B63" s="41" t="s">
+      <c r="B63" s="35" t="s">
         <v>1553</v>
       </c>
-      <c r="C63" s="41" t="s">
+      <c r="C63" s="35" t="s">
         <v>1554</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="41" t="s">
+    <row r="64" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="35" t="s">
         <v>1242</v>
       </c>
-      <c r="B64" s="41" t="s">
+      <c r="B64" s="35" t="s">
         <v>1555</v>
       </c>
-      <c r="C64" s="41" t="s">
+      <c r="C64" s="35" t="s">
         <v>1556</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="41" t="s">
+    <row r="65" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="35" t="s">
         <v>1243</v>
       </c>
-      <c r="B65" s="41" t="s">
+      <c r="B65" s="35" t="s">
         <v>1557</v>
       </c>
-      <c r="C65" s="41" t="s">
+      <c r="C65" s="35" t="s">
         <v>1558</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="41" t="s">
+    <row r="66" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="35" t="s">
         <v>1244</v>
       </c>
-      <c r="B66" s="41" t="s">
+      <c r="B66" s="35" t="s">
         <v>1559</v>
       </c>
-      <c r="C66" s="41" t="s">
+      <c r="C66" s="35" t="s">
         <v>1560</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="41" t="s">
+    <row r="67" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="35" t="s">
         <v>1245</v>
       </c>
-      <c r="B67" s="41" t="s">
+      <c r="B67" s="35" t="s">
         <v>1561</v>
       </c>
-      <c r="C67" s="41" t="s">
+      <c r="C67" s="35" t="s">
         <v>1562</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="41" t="s">
+    <row r="68" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="35" t="s">
         <v>1246</v>
       </c>
-      <c r="B68" s="41" t="s">
+      <c r="B68" s="35" t="s">
         <v>1563</v>
       </c>
-      <c r="C68" s="41" t="s">
+      <c r="C68" s="35" t="s">
         <v>1564</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="42" t="s">
+      <c r="A69" s="36" t="s">
         <v>1189</v>
       </c>
-      <c r="B69" s="42" t="s">
+      <c r="B69" s="36" t="s">
         <v>1565</v>
       </c>
-      <c r="C69" s="42" t="s">
+      <c r="C69" s="36" t="s">
         <v>1566</v>
       </c>
-      <c r="D69" s="42"/>
+      <c r="D69" s="36"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="42" t="s">
+      <c r="A70" s="36" t="s">
         <v>1190</v>
       </c>
-      <c r="B70" s="42" t="s">
+      <c r="B70" s="36" t="s">
         <v>1567</v>
       </c>
-      <c r="C70" s="42" t="s">
+      <c r="C70" s="36" t="s">
         <v>1568</v>
       </c>
-      <c r="D70" s="42"/>
+      <c r="D70" s="36"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="42" t="s">
+      <c r="A71" s="36" t="s">
         <v>1191</v>
       </c>
-      <c r="B71" s="42" t="s">
+      <c r="B71" s="36" t="s">
         <v>1569</v>
       </c>
-      <c r="C71" s="42" t="s">
+      <c r="C71" s="36" t="s">
         <v>1570</v>
       </c>
-      <c r="D71" s="42"/>
+      <c r="D71" s="36"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="42" t="s">
+      <c r="A72" s="36" t="s">
         <v>1192</v>
       </c>
-      <c r="B72" s="42" t="s">
+      <c r="B72" s="36" t="s">
         <v>1571</v>
       </c>
-      <c r="C72" s="42" t="s">
+      <c r="C72" s="36" t="s">
         <v>1572</v>
       </c>
-      <c r="D72" s="42"/>
+      <c r="D72" s="36"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="42" t="s">
+      <c r="A73" s="36" t="s">
         <v>1193</v>
       </c>
-      <c r="B73" s="42" t="s">
+      <c r="B73" s="36" t="s">
         <v>1573</v>
       </c>
-      <c r="C73" s="42" t="s">
+      <c r="C73" s="36" t="s">
         <v>1574</v>
       </c>
-      <c r="D73" s="42"/>
+      <c r="D73" s="36"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="42" t="s">
+      <c r="A74" s="36" t="s">
         <v>1194</v>
       </c>
-      <c r="B74" s="42" t="s">
+      <c r="B74" s="36" t="s">
         <v>1575</v>
       </c>
-      <c r="C74" s="42" t="s">
+      <c r="C74" s="36" t="s">
         <v>1576</v>
       </c>
-      <c r="D74" s="42"/>
+      <c r="D74" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-CodeLists-V02.00.00.xlsx
+++ b/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-CodeLists-V02.00.00.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="1575" windowWidth="12630" windowHeight="6420" tabRatio="884" firstSheet="11" activeTab="11"/>
+    <workbookView xWindow="7275" yWindow="1575" windowWidth="12630" windowHeight="6420" tabRatio="884"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityType" sheetId="155" r:id="rId1"/>
@@ -18,20 +18,21 @@
     <sheet name="CurrencyCode" sheetId="191" r:id="rId9"/>
     <sheet name="DocRefContentType" sheetId="192" r:id="rId10"/>
     <sheet name="EOIDType" sheetId="198" r:id="rId11"/>
-    <sheet name="EORoleType" sheetId="152" r:id="rId12"/>
-    <sheet name="EULanguageCode" sheetId="145" r:id="rId13"/>
-    <sheet name="FinancialRatioType" sheetId="200" r:id="rId14"/>
-    <sheet name="EvaluationMethodType" sheetId="197" r:id="rId15"/>
-    <sheet name="LegislationType" sheetId="175" r:id="rId16"/>
-    <sheet name="NumberOfLotsCode" sheetId="196" r:id="rId17"/>
-    <sheet name="PeriodMeasureType" sheetId="189" r:id="rId18"/>
-    <sheet name="ProcedureType" sheetId="146" r:id="rId19"/>
-    <sheet name="ProfileExecutionID" sheetId="161" r:id="rId20"/>
-    <sheet name="ProjectType" sheetId="147" r:id="rId21"/>
-    <sheet name="PropertyGroupType" sheetId="203" r:id="rId22"/>
-    <sheet name="QualificationApplicationType" sheetId="195" r:id="rId23"/>
-    <sheet name="ServicesProjectSubType" sheetId="158" r:id="rId24"/>
-    <sheet name="TechnicalCapabilityType" sheetId="149" r:id="rId25"/>
+    <sheet name="EOIndustryClassificationCode" sheetId="204" r:id="rId12"/>
+    <sheet name="EORoleType" sheetId="152" r:id="rId13"/>
+    <sheet name="EULanguageCode" sheetId="145" r:id="rId14"/>
+    <sheet name="FinancialRatioType" sheetId="200" r:id="rId15"/>
+    <sheet name="EvaluationMethodType" sheetId="197" r:id="rId16"/>
+    <sheet name="LegislationType" sheetId="175" r:id="rId17"/>
+    <sheet name="NumberOfLotsCode" sheetId="196" r:id="rId18"/>
+    <sheet name="PeriodMeasureType" sheetId="189" r:id="rId19"/>
+    <sheet name="ProcedureType" sheetId="146" r:id="rId20"/>
+    <sheet name="ProfileExecutionID" sheetId="161" r:id="rId21"/>
+    <sheet name="ProjectType" sheetId="147" r:id="rId22"/>
+    <sheet name="PropertyGroupType" sheetId="203" r:id="rId23"/>
+    <sheet name="QualificationApplicationType" sheetId="195" r:id="rId24"/>
+    <sheet name="ServicesProjectSubType" sheetId="158" r:id="rId25"/>
+    <sheet name="TechnicalCapabilityType" sheetId="149" r:id="rId26"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="7">CriteriaType!$A$1:$C$75</definedName>
@@ -280,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="1588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="1600">
   <si>
     <t>SV</t>
   </si>
@@ -5045,13 +5046,49 @@
   </si>
   <si>
     <t>Points at the instance of an evidence</t>
+  </si>
+  <si>
+    <t>EOIndustryClassificationCode</t>
+  </si>
+  <si>
+    <t>Economic Operator Industry Classification Code</t>
+  </si>
+  <si>
+    <t>MICRO</t>
+  </si>
+  <si>
+    <t>SMALL</t>
+  </si>
+  <si>
+    <t>MEDIUM</t>
+  </si>
+  <si>
+    <t>LARGE</t>
+  </si>
+  <si>
+    <t>Micro Enterprise</t>
+  </si>
+  <si>
+    <t>Small Enterprise</t>
+  </si>
+  <si>
+    <t>Medium Enterprise</t>
+  </si>
+  <si>
+    <t>Non SME, Large Company</t>
+  </si>
+  <si>
+    <t>SME</t>
+  </si>
+  <si>
+    <t>Small or Medium Enterprise</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -5141,6 +5178,16 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -5242,7 +5289,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5333,6 +5380,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Nor_x0004_al" xfId="1"/>
@@ -5340,7 +5389,7 @@
     <cellStyle name="Normal 2 2" xfId="2"/>
     <cellStyle name="Normal 2 3" xfId="3"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="36">
     <dxf>
       <font>
         <b val="0"/>
@@ -5646,6 +5695,23 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.5"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -6678,10 +6744,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7837" name="Table7837" displayName="Table7837" ref="A12:B35" tableType="xml" totalsRowShown="0" connectionId="66">
   <autoFilter ref="A12:B35"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="Code" name="Code" dataDxfId="34">
+    <tableColumn id="1" uniqueName="Code" name="Code" dataDxfId="35">
       <xmlColumnPr mapId="614" xpath="/CodeList/ValuesSet/ValueSet/Code" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Value" name="Value" dataDxfId="33">
+    <tableColumn id="2" uniqueName="Value" name="Value" dataDxfId="34">
       <xmlColumnPr mapId="614" xpath="/CodeList/ValuesSet/ValueSet/Value" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -6690,6 +6756,21 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table78042" displayName="Table78042" ref="A12:B17" tableType="xml" totalsRowShown="0" connectionId="77">
+  <autoFilter ref="A12:B17"/>
+  <tableColumns count="2">
+    <tableColumn id="1" uniqueName="Code" name="Code">
+      <xmlColumnPr mapId="611" xpath="/CodeList/ValuesSet/ValueSet/Code" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="2" uniqueName="Value" name="Value" dataDxfId="24">
+      <xmlColumnPr mapId="611" xpath="/CodeList/ValuesSet/ValueSet/Value" xmlDataType="string"/>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7804" name="Table7804" displayName="Table7804" ref="A12:C16" tableType="xml" totalsRowShown="0" connectionId="77">
   <autoFilter ref="A12:C16"/>
   <tableColumns count="3">
@@ -6705,7 +6786,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7606" name="Table7606" displayName="Table7606" ref="A12:B36" tableType="xml" totalsRowShown="0" connectionId="64">
   <autoFilter ref="A12:B36"/>
   <tableColumns count="2">
@@ -6720,7 +6801,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24511" name="Table783724512" displayName="Table783724512" ref="A12:C41" tableType="xml" totalsRowShown="0" connectionId="66">
   <autoFilter ref="A12:C41"/>
   <tableColumns count="3">
@@ -6736,7 +6817,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24096" name="Table783713621145522280724097" displayName="Table783713621145522280724097" ref="A12:B14" totalsRowShown="0">
   <autoFilter ref="A12:B14"/>
   <sortState ref="A13:B41">
@@ -6750,7 +6831,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22806" name="Table7837136211455222807" displayName="Table7837136211455222807" ref="A12:B17" totalsRowShown="0">
   <autoFilter ref="A12:B17"/>
   <sortState ref="A13:B41">
@@ -6764,7 +6845,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24095" name="Table760624096" displayName="Table760624096" ref="A12:C15" tableType="xml" totalsRowShown="0" connectionId="64">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
@@ -6780,7 +6861,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22400" name="Table783713621145522170522099221992230022401" displayName="Table783713621145522170522099221992230022401" ref="A12:B14" tableType="xml" totalsRowShown="0" connectionId="66">
   <autoFilter ref="A12:B14"/>
   <sortState ref="A13:B41">
@@ -6798,7 +6879,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7627" name="Table7627" displayName="Table7627" ref="A12:B27" tableType="xml" totalsRowShown="0" connectionId="61">
   <autoFilter ref="A12:B27"/>
   <tableColumns count="2">
@@ -6813,7 +6894,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10009" name="Table762710010" displayName="Table762710010" ref="A12:B16" tableType="xml" totalsRowShown="0" connectionId="62">
   <autoFilter ref="A12:B16"/>
   <tableColumns count="2">
@@ -6828,7 +6909,18 @@
 </table>
 </file>
 
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16245" name="Table783716246" displayName="Table783716246" ref="A12:B18" totalsRowShown="0">
+  <autoFilter ref="A12:B18"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Code" dataDxfId="33"/>
+    <tableColumn id="2" name="Value" dataDxfId="32"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7638" name="Table7638" displayName="Table7638" ref="A12:B19" tableType="xml" totalsRowShown="0" connectionId="72">
   <autoFilter ref="A12:B19"/>
   <tableColumns count="2">
@@ -6843,18 +6935,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16245" name="Table783716246" displayName="Table783716246" ref="A12:B18" totalsRowShown="0">
-  <autoFilter ref="A12:B18"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Code" dataDxfId="32"/>
-    <tableColumn id="2" name="Value" dataDxfId="31"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26629" name="Table763826630" displayName="Table763826630" ref="A12:B15" tableType="xml" totalsRowShown="0" connectionId="72">
   <autoFilter ref="A12:B15"/>
   <tableColumns count="2">
@@ -6869,7 +6950,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23994" name="Table763823995" displayName="Table763823995" ref="A12:C14" tableType="xml" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" connectionId="72">
   <autoFilter ref="A12:C14"/>
   <tableColumns count="3">
@@ -6885,7 +6966,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7870" name="Table7870" displayName="Table7870" ref="A12:B39" tableType="xml" totalsRowShown="0" connectionId="69">
   <autoFilter ref="A12:B39"/>
   <tableColumns count="2">
@@ -6900,7 +6981,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7763" name="Table7763" displayName="Table7763" ref="A12:B30" tableType="xml" totalsRowShown="0" connectionId="74">
   <autoFilter ref="A12:B30"/>
   <tableColumns count="2">
@@ -6922,7 +7003,7 @@
     <tableColumn id="1" uniqueName="Code" name="Code">
       <xmlColumnPr mapId="603" xpath="/CodeList/ValuesSet/ValueSet/Code" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Value" name="Value" dataDxfId="30">
+    <tableColumn id="2" uniqueName="Value" name="Value" dataDxfId="31">
       <xmlColumnPr mapId="603" xpath="/CodeList/ValuesSet/ValueSet/Value" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -6937,7 +7018,7 @@
     <tableColumn id="1" uniqueName="Code" name="Code">
       <xmlColumnPr mapId="603" xpath="/CodeList/ValuesSet/ValueSet/Code" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Value" name="Value" dataDxfId="29">
+    <tableColumn id="2" uniqueName="Value" name="Value" dataDxfId="30">
       <xmlColumnPr mapId="603" xpath="/CodeList/ValuesSet/ValueSet/Value" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -6952,7 +7033,7 @@
     <tableColumn id="1" uniqueName="Code" name="Code">
       <xmlColumnPr mapId="603" xpath="/CodeList/ValuesSet/ValueSet/Code" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Value" name="Value" dataDxfId="28">
+    <tableColumn id="2" uniqueName="Value" name="Value" dataDxfId="29">
       <xmlColumnPr mapId="603" xpath="/CodeList/ValuesSet/ValueSet/Value" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -6967,8 +7048,8 @@
     <sortCondition ref="A13"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" name="Code" dataDxfId="27"/>
-    <tableColumn id="2" name="Value" dataDxfId="26"/>
+    <tableColumn id="1" name="Code" dataDxfId="28"/>
+    <tableColumn id="2" name="Value" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6990,7 +7071,7 @@
   <autoFilter ref="A12:B32"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
-    <tableColumn id="2" name="Value" dataDxfId="25"/>
+    <tableColumn id="2" name="Value" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7003,7 +7084,7 @@
     <tableColumn id="1" uniqueName="Code" name="Code">
       <xmlColumnPr mapId="611" xpath="/CodeList/ValuesSet/ValueSet/Code" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Value" name="Value" dataDxfId="24">
+    <tableColumn id="2" uniqueName="Value" name="Value" dataDxfId="25">
       <xmlColumnPr mapId="611" xpath="/CodeList/ValuesSet/ValueSet/Value" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -7763,7 +7844,7 @@
   </sheetPr>
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8461,11 +8542,158 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="45" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8616,7 +8844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:B36"/>
@@ -8909,7 +9137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
@@ -9338,7 +9566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -9462,7 +9690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -9609,7 +9837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -9751,7 +9979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -9873,232 +10101,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:B27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="30">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="30">
-        <v>2</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="30">
-        <v>3</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="30">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="30">
-        <v>6</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="30">
-        <v>9</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="29">
-        <v>10</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="29">
-        <v>11</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -10335,6 +10337,232 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet12"/>
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="30">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="30">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="30">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="30">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="30">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="30">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="29">
+        <v>10</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="29">
+        <v>11</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:B16"/>
   <sheetViews>
@@ -10468,7 +10696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:B19"/>
@@ -10633,7 +10861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -10765,7 +10993,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -10905,7 +11133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15">
     <tabColor theme="0" tint="-0.249977111117893"/>
@@ -11225,7 +11453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:B39"/>

--- a/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-CodeLists-V02.00.00.xlsx
+++ b/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-CodeLists-V02.00.00.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="1575" windowWidth="12630" windowHeight="6420" tabRatio="884"/>
+    <workbookView xWindow="7275" yWindow="1575" windowWidth="12630" windowHeight="6420" tabRatio="884" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityType" sheetId="155" r:id="rId1"/>
@@ -13,29 +13,29 @@
     <sheet name="ContractType" sheetId="144" r:id="rId4"/>
     <sheet name="CountryCodeIdentifier" sheetId="190" r:id="rId5"/>
     <sheet name="CriterionElementType" sheetId="202" r:id="rId6"/>
-    <sheet name="ResponseDataType" sheetId="185" r:id="rId7"/>
-    <sheet name="CriteriaType" sheetId="193" r:id="rId8"/>
-    <sheet name="CurrencyCode" sheetId="191" r:id="rId9"/>
-    <sheet name="DocRefContentType" sheetId="192" r:id="rId10"/>
-    <sheet name="EOIDType" sheetId="198" r:id="rId11"/>
-    <sheet name="EOIndustryClassificationCode" sheetId="204" r:id="rId12"/>
-    <sheet name="EORoleType" sheetId="152" r:id="rId13"/>
-    <sheet name="EULanguageCode" sheetId="145" r:id="rId14"/>
-    <sheet name="FinancialRatioType" sheetId="200" r:id="rId15"/>
-    <sheet name="EvaluationMethodType" sheetId="197" r:id="rId16"/>
-    <sheet name="LegislationType" sheetId="175" r:id="rId17"/>
-    <sheet name="NumberOfLotsCode" sheetId="196" r:id="rId18"/>
-    <sheet name="PeriodMeasureType" sheetId="189" r:id="rId19"/>
-    <sheet name="ProcedureType" sheetId="146" r:id="rId20"/>
-    <sheet name="ProfileExecutionID" sheetId="161" r:id="rId21"/>
-    <sheet name="ProjectType" sheetId="147" r:id="rId22"/>
-    <sheet name="PropertyGroupType" sheetId="203" r:id="rId23"/>
-    <sheet name="QualificationApplicationType" sheetId="195" r:id="rId24"/>
+    <sheet name="CriteriaType" sheetId="193" r:id="rId7"/>
+    <sheet name="CurrencyCode" sheetId="191" r:id="rId8"/>
+    <sheet name="DocRefContentType" sheetId="192" r:id="rId9"/>
+    <sheet name="EOIDType" sheetId="198" r:id="rId10"/>
+    <sheet name="EOIndustryClassificationCode" sheetId="204" r:id="rId11"/>
+    <sheet name="EORoleType" sheetId="152" r:id="rId12"/>
+    <sheet name="EULanguageCode" sheetId="145" r:id="rId13"/>
+    <sheet name="FinancialRatioType" sheetId="200" r:id="rId14"/>
+    <sheet name="EvaluationMethodType" sheetId="197" r:id="rId15"/>
+    <sheet name="LegislationType" sheetId="175" r:id="rId16"/>
+    <sheet name="NumberOfLotsCode" sheetId="196" r:id="rId17"/>
+    <sheet name="PeriodMeasureType" sheetId="189" r:id="rId18"/>
+    <sheet name="ProcedureType" sheetId="146" r:id="rId19"/>
+    <sheet name="ProfileExecutionID" sheetId="161" r:id="rId20"/>
+    <sheet name="ProjectType" sheetId="147" r:id="rId21"/>
+    <sheet name="PropertyGroupType" sheetId="203" r:id="rId22"/>
+    <sheet name="QualificationApplicationType" sheetId="195" r:id="rId23"/>
+    <sheet name="ResponseDataType" sheetId="185" r:id="rId24"/>
     <sheet name="ServicesProjectSubType" sheetId="158" r:id="rId25"/>
     <sheet name="TechnicalCapabilityType" sheetId="149" r:id="rId26"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">CriteriaType!$A$1:$C$75</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">CriteriaType!$A$1:$C$75</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -5186,6 +5186,7 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
       <u/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -6756,21 +6757,6 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table78042" displayName="Table78042" ref="A12:B17" tableType="xml" totalsRowShown="0" connectionId="77">
-  <autoFilter ref="A12:B17"/>
-  <tableColumns count="2">
-    <tableColumn id="1" uniqueName="Code" name="Code">
-      <xmlColumnPr mapId="611" xpath="/CodeList/ValuesSet/ValueSet/Code" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="2" uniqueName="Value" name="Value" dataDxfId="24">
-      <xmlColumnPr mapId="611" xpath="/CodeList/ValuesSet/ValueSet/Value" xmlDataType="string"/>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7804" name="Table7804" displayName="Table7804" ref="A12:C16" tableType="xml" totalsRowShown="0" connectionId="77">
   <autoFilter ref="A12:C16"/>
   <tableColumns count="3">
@@ -6786,7 +6772,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7606" name="Table7606" displayName="Table7606" ref="A12:B36" tableType="xml" totalsRowShown="0" connectionId="64">
   <autoFilter ref="A12:B36"/>
   <tableColumns count="2">
@@ -6801,7 +6787,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24511" name="Table783724512" displayName="Table783724512" ref="A12:C41" tableType="xml" totalsRowShown="0" connectionId="66">
   <autoFilter ref="A12:C41"/>
   <tableColumns count="3">
@@ -6817,7 +6803,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24096" name="Table783713621145522280724097" displayName="Table783713621145522280724097" ref="A12:B14" totalsRowShown="0">
   <autoFilter ref="A12:B14"/>
   <sortState ref="A13:B41">
@@ -6831,7 +6817,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22806" name="Table7837136211455222807" displayName="Table7837136211455222807" ref="A12:B17" totalsRowShown="0">
   <autoFilter ref="A12:B17"/>
   <sortState ref="A13:B41">
@@ -6845,7 +6831,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24095" name="Table760624096" displayName="Table760624096" ref="A12:C15" tableType="xml" totalsRowShown="0" connectionId="64">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
@@ -6861,7 +6847,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22400" name="Table783713621145522170522099221992230022401" displayName="Table783713621145522170522099221992230022401" ref="A12:B14" tableType="xml" totalsRowShown="0" connectionId="66">
   <autoFilter ref="A12:B14"/>
   <sortState ref="A13:B41">
@@ -6879,7 +6865,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7627" name="Table7627" displayName="Table7627" ref="A12:B27" tableType="xml" totalsRowShown="0" connectionId="61">
   <autoFilter ref="A12:B27"/>
   <tableColumns count="2">
@@ -6894,7 +6880,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10009" name="Table762710010" displayName="Table762710010" ref="A12:B16" tableType="xml" totalsRowShown="0" connectionId="62">
   <autoFilter ref="A12:B16"/>
   <tableColumns count="2">
@@ -6903,6 +6889,21 @@
     </tableColumn>
     <tableColumn id="2" uniqueName="Value" name="Value" dataDxfId="11">
       <xmlColumnPr mapId="631" xpath="/CodeList/ValuesSet/ValueSet/Value" xmlDataType="string"/>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7638" name="Table7638" displayName="Table7638" ref="A12:B19" tableType="xml" totalsRowShown="0" connectionId="72">
+  <autoFilter ref="A12:B19"/>
+  <tableColumns count="2">
+    <tableColumn id="1" uniqueName="Code" name="Code" dataDxfId="10">
+      <xmlColumnPr mapId="606" xpath="/CodeList/ValuesSet/ValueSet/Code" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="2" uniqueName="Value" name="Value">
+      <xmlColumnPr mapId="606" xpath="/CodeList/ValuesSet/ValueSet/Value" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6921,21 +6922,6 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7638" name="Table7638" displayName="Table7638" ref="A12:B19" tableType="xml" totalsRowShown="0" connectionId="72">
-  <autoFilter ref="A12:B19"/>
-  <tableColumns count="2">
-    <tableColumn id="1" uniqueName="Code" name="Code" dataDxfId="10">
-      <xmlColumnPr mapId="606" xpath="/CodeList/ValuesSet/ValueSet/Code" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="2" uniqueName="Value" name="Value">
-      <xmlColumnPr mapId="606" xpath="/CodeList/ValuesSet/ValueSet/Value" xmlDataType="string"/>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26629" name="Table763826630" displayName="Table763826630" ref="A12:B15" tableType="xml" totalsRowShown="0" connectionId="72">
   <autoFilter ref="A12:B15"/>
   <tableColumns count="2">
@@ -6950,7 +6936,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23994" name="Table763823995" displayName="Table763823995" ref="A12:C14" tableType="xml" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" connectionId="72">
   <autoFilter ref="A12:C14"/>
   <tableColumns count="3">
@@ -6961,6 +6947,20 @@
       <xmlColumnPr mapId="606" xpath="/CodeList/ValuesSet/ValueSet/Value" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="3" uniqueName="3" name="Description" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22805" name="Table783713621145522170522806" displayName="Table783713621145522170522806" ref="A12:B35" totalsRowShown="0">
+  <autoFilter ref="A12:B35"/>
+  <sortState ref="A13:B23">
+    <sortCondition ref="A13"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Code" dataDxfId="28"/>
+    <tableColumn id="2" name="Value" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7042,20 +7042,6 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22805" name="Table783713621145522170522806" displayName="Table783713621145522170522806" ref="A12:B35" totalsRowShown="0">
-  <autoFilter ref="A12:B35"/>
-  <sortState ref="A13:B23">
-    <sortCondition ref="A13"/>
-  </sortState>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Code" dataDxfId="28"/>
-    <tableColumn id="2" name="Value" dataDxfId="27"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26628" name="List11_1914365" displayName="List11_1914365" ref="A12:C74" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="Code"/>
@@ -7066,7 +7052,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23205" name="Table75952343623206" displayName="Table75952343623206" ref="A12:B32" totalsRowShown="0">
   <autoFilter ref="A12:B32"/>
   <tableColumns count="2">
@@ -7077,7 +7063,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24301" name="Table780424302" displayName="Table780424302" ref="A12:B17" tableType="xml" totalsRowShown="0" connectionId="77">
   <autoFilter ref="A12:B17"/>
   <tableColumns count="2">
@@ -7085,6 +7071,21 @@
       <xmlColumnPr mapId="611" xpath="/CodeList/ValuesSet/ValueSet/Code" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="Value" name="Value" dataDxfId="25">
+      <xmlColumnPr mapId="611" xpath="/CodeList/ValuesSet/ValueSet/Value" xmlDataType="string"/>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table78042" displayName="Table78042" ref="A12:B17" tableType="xml" totalsRowShown="0" connectionId="77">
+  <autoFilter ref="A12:B17"/>
+  <tableColumns count="2">
+    <tableColumn id="1" uniqueName="Code" name="Code">
+      <xmlColumnPr mapId="611" xpath="/CodeList/ValuesSet/ValueSet/Code" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="2" uniqueName="Value" name="Value" dataDxfId="24">
       <xmlColumnPr mapId="611" xpath="/CodeList/ValuesSet/ValueSet/Value" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -7844,7 +7845,7 @@
   </sheetPr>
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8126,275 +8127,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B32"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="77.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>1404</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>1405</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>1406</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>1407</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>1408</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>1409</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>1416</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>1419</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>1417</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>1418</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -8540,11 +8272,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8553,7 +8285,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -8663,7 +8395,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="12" t="s">
         <v>1598</v>
       </c>
       <c r="B16" s="44" t="s">
@@ -8687,7 +8419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:C16"/>
@@ -8844,7 +8576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:B36"/>
@@ -9137,7 +8869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
@@ -9566,7 +9298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -9690,7 +9422,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -9837,7 +9569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -9979,7 +9711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -10101,6 +9833,232 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet12"/>
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="30">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="30">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="30">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="30">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="30">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="30">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="29">
+        <v>10</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="29">
+        <v>11</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -10337,232 +10295,6 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:B27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="30">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="30">
-        <v>2</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="30">
-        <v>3</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="30">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="30">
-        <v>6</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="30">
-        <v>9</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="29">
-        <v>10</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="29">
-        <v>11</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:B16"/>
   <sheetViews>
@@ -10696,7 +10428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:B19"/>
@@ -10861,7 +10593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -10993,7 +10725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -11122,6 +10854,299 @@
       </c>
       <c r="C14" s="40" t="s">
         <v>1264</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="175.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="23" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="23" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="23" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="23" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="23" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="23" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>1441</v>
       </c>
     </row>
   </sheetData>
@@ -11746,7 +11771,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B9"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14339,299 +14364,6 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="175.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
-        <v>1586</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="s">
-        <v>1269</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
-        <v>1402</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
-        <v>1426</v>
-      </c>
-      <c r="B28" s="31" t="s">
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
-        <v>1427</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
-        <v>1428</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
-        <v>1429</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>1436</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="23" t="s">
-        <v>1430</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="s">
-        <v>1431</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>1433</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="23" t="s">
-        <v>1432</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>1434</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="23" t="s">
-        <v>1440</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>1441</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -15454,7 +15186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C263"/>
   <sheetViews>
@@ -17740,4 +17472,273 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-CodeLists-V02.00.00.xlsx
+++ b/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-CodeLists-V02.00.00.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="1575" windowWidth="12630" windowHeight="6420" tabRatio="884"/>
+    <workbookView xWindow="7275" yWindow="1575" windowWidth="12630" windowHeight="6420" tabRatio="884" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityType" sheetId="155" r:id="rId1"/>
@@ -7845,7 +7845,7 @@
   </sheetPr>
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14389,9 +14389,7 @@
   </sheetPr>
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-CodeLists-V02.00.00.xlsx
+++ b/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-CodeLists-V02.00.00.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="1575" windowWidth="12630" windowHeight="6420" tabRatio="884" activeTab="6"/>
+    <workbookView xWindow="7275" yWindow="1575" windowWidth="12630" windowHeight="6420" tabRatio="884" firstSheet="16" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityType" sheetId="155" r:id="rId1"/>
@@ -9309,7 +9309,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10883,8 +10883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14389,7 +14389,7 @@
   </sheetPr>
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-CodeLists-V02.00.00.xlsx
+++ b/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-CodeLists-V02.00.00.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="1575" windowWidth="12630" windowHeight="6420" tabRatio="884" firstSheet="16" activeTab="23"/>
+    <workbookView xWindow="7275" yWindow="1575" windowWidth="12630" windowHeight="6420" tabRatio="884" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityType" sheetId="155" r:id="rId1"/>
@@ -4481,12 +4481,6 @@
     <t>CRITERION ELEMENT TYPE</t>
   </si>
   <si>
-    <t>Criterion</t>
-  </si>
-  <si>
-    <t>Question or requirement that requires an answer</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
@@ -4613,33 +4607,12 @@
     <t>SUBCRITERION</t>
   </si>
   <si>
-    <t>Use to define national subcriteria or to group complex repetitive structures (e.g. more than one ratio or more than one references to works, supplies or services)</t>
-  </si>
-  <si>
-    <t>Group of requirements or remarks (captions)</t>
-  </si>
-  <si>
-    <t>Requirement, remark, additional information (captions)</t>
-  </si>
-  <si>
-    <t>Group of questions, each question requiring an answer</t>
-  </si>
-  <si>
     <t>QUESTION_SUBGROUP</t>
   </si>
   <si>
-    <t>A subgroup of questions inside a group or a subgroup of question</t>
-  </si>
-  <si>
-    <t>A subgroup of requirements or remarks (captions) inside a group or subgroup of requirements</t>
-  </si>
-  <si>
     <t>CAPTION</t>
   </si>
   <si>
-    <t>A text label</t>
-  </si>
-  <si>
     <t>Additional line in a description (for descriptions that can be split in several lines)</t>
   </si>
   <si>
@@ -5082,6 +5055,33 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>A criterion (in the case of the the ESPD an Exclusion or Selection criterion)</t>
+  </si>
+  <si>
+    <t>Used to define national sub-criteria</t>
+  </si>
+  <si>
+    <t>Group of requirements or remarks issued by a MS or a CA</t>
+  </si>
+  <si>
+    <t>A subgroup of requirements or remarks inside a group or subgroup of requirements</t>
+  </si>
+  <si>
+    <t>Requirement, remark, rule, restriction or additional information to which the EO needs to conform or comply with</t>
+  </si>
+  <si>
+    <t>Group of questions, each question requiring a datum as an answer from the EO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A subgroup of questions inside a group or a subgroup of questions</t>
+  </si>
+  <si>
+    <t>A question that requires an answer (a specific datum) from the EO</t>
+  </si>
+  <si>
+    <t>A text label (no requirement nor answer is expected)</t>
   </si>
 </sst>
 </file>
@@ -7931,7 +7931,7 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>1599</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -8169,7 +8169,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -8223,7 +8223,7 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>1599</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -8293,7 +8293,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1587</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -8301,7 +8301,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1588</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -8309,7 +8309,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1587</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -8317,7 +8317,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -8371,47 +8371,47 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>1599</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1589</v>
+        <v>1580</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>1593</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1590</v>
+        <v>1581</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>1594</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1591</v>
+        <v>1582</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>1595</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>1597</v>
+        <v>1588</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>1598</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1592</v>
+        <v>1583</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>1596</v>
+        <v>1587</v>
       </c>
     </row>
   </sheetData>
@@ -8468,7 +8468,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -8522,7 +8522,7 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>1599</v>
+        <v>1590</v>
       </c>
       <c r="C12" t="s">
         <v>1187</v>
@@ -8671,7 +8671,7 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>1599</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -8971,7 +8971,7 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>1599</v>
+        <v>1590</v>
       </c>
       <c r="C12" t="s">
         <v>1317</v>
@@ -9347,7 +9347,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -9401,7 +9401,7 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>1599</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -9471,7 +9471,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -9525,7 +9525,7 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>1599</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -9618,7 +9618,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -9672,7 +9672,7 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>1599</v>
+        <v>1590</v>
       </c>
       <c r="C12" t="s">
         <v>1277</v>
@@ -9761,7 +9761,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -9815,7 +9815,7 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>1599</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -9939,7 +9939,7 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>1599</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -10114,7 +10114,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -10168,7 +10168,7 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>1599</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -10397,7 +10397,7 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>1599</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -10538,7 +10538,7 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>1599</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -10624,7 +10624,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>1576</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -10638,7 +10638,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>1577</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -10646,7 +10646,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -10704,31 +10704,31 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>1599</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
-        <v>1578</v>
+        <v>1569</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>1581</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
-        <v>1579</v>
+        <v>1570</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>1582</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
-        <v>1580</v>
+        <v>1571</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>1583</v>
+        <v>1574</v>
       </c>
     </row>
   </sheetData>
@@ -10784,7 +10784,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -10842,7 +10842,7 @@
         <v>30</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>1599</v>
+        <v>1590</v>
       </c>
       <c r="C12" s="40" t="s">
         <v>1187</v>
@@ -10883,7 +10883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -10922,7 +10922,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -10976,7 +10976,7 @@
         <v>30</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>1599</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -11021,10 +11021,10 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
-        <v>1585</v>
+        <v>1576</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>1586</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -11088,79 +11088,79 @@
         <v>1313</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>1584</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B33" s="23" t="s">
         <v>1430</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>1432</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B34" s="23" t="s">
         <v>1431</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="23" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
   </sheetData>
@@ -11267,7 +11267,7 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>1599</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -11592,7 +11592,7 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>1599</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -11827,7 +11827,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -11881,7 +11881,7 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>1599</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -12002,7 +12002,7 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>1599</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -12178,7 +12178,7 @@
         <v>30</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>1599</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
@@ -14190,8 +14190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14229,7 +14229,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -14283,7 +14283,7 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>1599</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -14291,87 +14291,87 @@
         <v>1396</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1399</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>1443</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>1444</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>1449</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>1445</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>1446</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>1447</v>
+        <v>1441</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>1448</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1400</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>1450</v>
+        <v>1442</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>1451</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>1453</v>
+        <v>1444</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>1452</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>1455</v>
+        <v>1446</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>1456</v>
+        <v>1447</v>
       </c>
     </row>
   </sheetData>
@@ -14428,7 +14428,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -14482,7 +14482,7 @@
         <v>30</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>1457</v>
+        <v>1448</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>1187</v>
@@ -14493,13 +14493,13 @@
         <v>1194</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>1458</v>
+        <v>1449</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>1459</v>
+        <v>1450</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>1460</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -14507,13 +14507,13 @@
         <v>1195</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>1461</v>
+        <v>1452</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>1462</v>
+        <v>1453</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>1460</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -14521,10 +14521,10 @@
         <v>1196</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>1463</v>
+        <v>1454</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>1460</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -14532,13 +14532,13 @@
         <v>1197</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>1464</v>
+        <v>1455</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>1465</v>
+        <v>1456</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>1460</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -14546,10 +14546,10 @@
         <v>1198</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>1460</v>
+        <v>1451</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>1460</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -14557,10 +14557,10 @@
         <v>1199</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>1460</v>
+        <v>1451</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>1460</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -14568,10 +14568,10 @@
         <v>1200</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>1466</v>
+        <v>1457</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>1467</v>
+        <v>1458</v>
       </c>
       <c r="D19" s="36"/>
     </row>
@@ -14580,10 +14580,10 @@
         <v>1201</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>1468</v>
+        <v>1459</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>1469</v>
+        <v>1460</v>
       </c>
       <c r="D20" s="36"/>
     </row>
@@ -14592,10 +14592,10 @@
         <v>1202</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>1470</v>
+        <v>1461</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>1471</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -14603,10 +14603,10 @@
         <v>1203</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>1472</v>
+        <v>1463</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -14614,10 +14614,10 @@
         <v>1204</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>1474</v>
+        <v>1465</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>1475</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -14625,10 +14625,10 @@
         <v>1205</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>1476</v>
+        <v>1467</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>1477</v>
+        <v>1468</v>
       </c>
       <c r="D24" s="36"/>
     </row>
@@ -14637,10 +14637,10 @@
         <v>1206</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>1478</v>
+        <v>1469</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>1479</v>
+        <v>1470</v>
       </c>
       <c r="D25" s="36"/>
     </row>
@@ -14649,10 +14649,10 @@
         <v>1207</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>1480</v>
+        <v>1471</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>1481</v>
+        <v>1472</v>
       </c>
       <c r="D26" s="36"/>
     </row>
@@ -14661,10 +14661,10 @@
         <v>1208</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>1482</v>
+        <v>1473</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>1483</v>
+        <v>1474</v>
       </c>
       <c r="D27" s="36"/>
     </row>
@@ -14673,10 +14673,10 @@
         <v>1209</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>1484</v>
+        <v>1475</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>1485</v>
+        <v>1476</v>
       </c>
       <c r="D28" s="36"/>
     </row>
@@ -14685,7 +14685,7 @@
         <v>1210</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>1486</v>
+        <v>1477</v>
       </c>
       <c r="C29" s="36"/>
       <c r="D29" s="36"/>
@@ -14695,7 +14695,7 @@
         <v>1211</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>1487</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -14703,10 +14703,10 @@
         <v>1212</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>1488</v>
+        <v>1479</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>1489</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -14714,10 +14714,10 @@
         <v>1213</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>1490</v>
+        <v>1481</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>1491</v>
+        <v>1482</v>
       </c>
       <c r="D32" s="36"/>
     </row>
@@ -14726,10 +14726,10 @@
         <v>1214</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>1492</v>
+        <v>1483</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>1493</v>
+        <v>1484</v>
       </c>
       <c r="D33" s="36"/>
     </row>
@@ -14738,10 +14738,10 @@
         <v>1215</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>1494</v>
+        <v>1485</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>1495</v>
+        <v>1486</v>
       </c>
       <c r="D34" s="36"/>
     </row>
@@ -14750,10 +14750,10 @@
         <v>1216</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>1496</v>
+        <v>1487</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>1497</v>
+        <v>1488</v>
       </c>
       <c r="D35" s="36"/>
     </row>
@@ -14762,10 +14762,10 @@
         <v>1217</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>1498</v>
+        <v>1489</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>1499</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -14773,10 +14773,10 @@
         <v>1218</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>1500</v>
+        <v>1491</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>1501</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -14784,10 +14784,10 @@
         <v>1219</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>1502</v>
+        <v>1493</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>1503</v>
+        <v>1494</v>
       </c>
       <c r="D38" s="36"/>
     </row>
@@ -14796,10 +14796,10 @@
         <v>1220</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>1504</v>
+        <v>1495</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>1505</v>
+        <v>1496</v>
       </c>
       <c r="D39" s="36"/>
     </row>
@@ -14808,10 +14808,10 @@
         <v>1221</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>1506</v>
+        <v>1497</v>
       </c>
       <c r="C40" s="36" t="s">
-        <v>1505</v>
+        <v>1496</v>
       </c>
       <c r="D40" s="36"/>
     </row>
@@ -14820,10 +14820,10 @@
         <v>1222</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>1507</v>
+        <v>1498</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>1508</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -14831,10 +14831,10 @@
         <v>1223</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>1509</v>
+        <v>1500</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>1510</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -14842,10 +14842,10 @@
         <v>1224</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>1511</v>
+        <v>1502</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>1512</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -14853,10 +14853,10 @@
         <v>1225</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>1513</v>
+        <v>1504</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>1514</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -14864,10 +14864,10 @@
         <v>1226</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>1516</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -14875,7 +14875,7 @@
         <v>1227</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>1517</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -14883,10 +14883,10 @@
         <v>1246</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>1518</v>
+        <v>1509</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>1519</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -14894,10 +14894,10 @@
         <v>1228</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>1520</v>
+        <v>1511</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>1521</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -14905,10 +14905,10 @@
         <v>1229</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>1522</v>
+        <v>1513</v>
       </c>
       <c r="C49" s="36" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="D49" s="36"/>
     </row>
@@ -14917,10 +14917,10 @@
         <v>1230</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
       <c r="C50" s="36" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
       <c r="D50" s="36"/>
     </row>
@@ -14929,10 +14929,10 @@
         <v>1231</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
       <c r="C51" s="36" t="s">
-        <v>1527</v>
+        <v>1518</v>
       </c>
       <c r="D51" s="36"/>
     </row>
@@ -14941,10 +14941,10 @@
         <v>1232</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
       <c r="C52" s="35" t="s">
-        <v>1529</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -14952,10 +14952,10 @@
         <v>1233</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>1530</v>
+        <v>1521</v>
       </c>
       <c r="C53" s="35" t="s">
-        <v>1531</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -14963,21 +14963,21 @@
         <v>1234</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>1532</v>
+        <v>1523</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>1533</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="35" t="s">
-        <v>1534</v>
+        <v>1525</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>1535</v>
+        <v>1526</v>
       </c>
       <c r="C55" s="35" t="s">
-        <v>1536</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -14985,10 +14985,10 @@
         <v>1235</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>1537</v>
+        <v>1528</v>
       </c>
       <c r="C56" s="35" t="s">
-        <v>1538</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -14996,21 +14996,21 @@
         <v>1247</v>
       </c>
       <c r="B57" s="35" t="s">
-        <v>1539</v>
+        <v>1530</v>
       </c>
       <c r="C57" s="35" t="s">
-        <v>1540</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="35" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>1542</v>
+        <v>1533</v>
       </c>
       <c r="C58" s="35" t="s">
-        <v>1543</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -15018,10 +15018,10 @@
         <v>1236</v>
       </c>
       <c r="B59" s="35" t="s">
-        <v>1544</v>
+        <v>1535</v>
       </c>
       <c r="C59" s="35" t="s">
-        <v>1545</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="60" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -15029,10 +15029,10 @@
         <v>1238</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>1546</v>
+        <v>1537</v>
       </c>
       <c r="C60" s="35" t="s">
-        <v>1547</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -15040,10 +15040,10 @@
         <v>1239</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>1548</v>
+        <v>1539</v>
       </c>
       <c r="C61" s="35" t="s">
-        <v>1549</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -15051,10 +15051,10 @@
         <v>1237</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>1550</v>
+        <v>1541</v>
       </c>
       <c r="C62" s="35" t="s">
-        <v>1551</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -15062,10 +15062,10 @@
         <v>1240</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>1552</v>
+        <v>1543</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>1553</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="64" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -15073,10 +15073,10 @@
         <v>1241</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>1554</v>
+        <v>1545</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>1555</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -15084,10 +15084,10 @@
         <v>1242</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>1556</v>
+        <v>1547</v>
       </c>
       <c r="C65" s="35" t="s">
-        <v>1557</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="66" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -15095,10 +15095,10 @@
         <v>1243</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>1558</v>
+        <v>1549</v>
       </c>
       <c r="C66" s="35" t="s">
-        <v>1559</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -15106,10 +15106,10 @@
         <v>1244</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>1560</v>
+        <v>1551</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>1561</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -15117,10 +15117,10 @@
         <v>1245</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>1562</v>
+        <v>1553</v>
       </c>
       <c r="C68" s="35" t="s">
-        <v>1563</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -15128,10 +15128,10 @@
         <v>1188</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>1564</v>
+        <v>1555</v>
       </c>
       <c r="C69" s="36" t="s">
-        <v>1565</v>
+        <v>1556</v>
       </c>
       <c r="D69" s="36"/>
     </row>
@@ -15140,10 +15140,10 @@
         <v>1189</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>1566</v>
+        <v>1557</v>
       </c>
       <c r="C70" s="36" t="s">
-        <v>1567</v>
+        <v>1558</v>
       </c>
       <c r="D70" s="36"/>
     </row>
@@ -15152,10 +15152,10 @@
         <v>1190</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>1568</v>
+        <v>1559</v>
       </c>
       <c r="C71" s="36" t="s">
-        <v>1569</v>
+        <v>1560</v>
       </c>
       <c r="D71" s="36"/>
     </row>
@@ -15164,10 +15164,10 @@
         <v>1191</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>1570</v>
+        <v>1561</v>
       </c>
       <c r="C72" s="36" t="s">
-        <v>1571</v>
+        <v>1562</v>
       </c>
       <c r="D72" s="36"/>
     </row>
@@ -15176,10 +15176,10 @@
         <v>1192</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>1572</v>
+        <v>1563</v>
       </c>
       <c r="C73" s="36" t="s">
-        <v>1573</v>
+        <v>1564</v>
       </c>
       <c r="D73" s="36"/>
     </row>
@@ -15188,10 +15188,10 @@
         <v>1193</v>
       </c>
       <c r="B74" s="36" t="s">
-        <v>1574</v>
+        <v>1565</v>
       </c>
       <c r="C74" s="36" t="s">
-        <v>1575</v>
+        <v>1566</v>
       </c>
       <c r="D74" s="36"/>
     </row>
@@ -15247,7 +15247,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -15305,7 +15305,7 @@
         <v>30</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>1599</v>
+        <v>1590</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>775</v>
@@ -17535,7 +17535,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -17589,7 +17589,7 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>1599</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -17682,74 +17682,74 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
   </sheetData>
